--- a/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
+++ b/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="328">
   <si>
     <t>土地坐落</t>
   </si>
@@ -680,6 +680,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>★新光合成纖維股份有限 公司</t>
   </si>
   <si>
@@ -702,6 +711,9 @@
   </si>
   <si>
     <t>1，746，410</t>
+  </si>
+  <si>
+    <t>2013-05-01</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -4192,13 +4204,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>213</v>
       </c>
@@ -4217,13 +4229,22 @@
       <c r="G1" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>90</v>
@@ -4240,13 +4261,22 @@
       <c r="G2" s="2">
         <v>1103980</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>90</v>
@@ -4263,13 +4293,22 @@
       <c r="G3" s="2">
         <v>300220</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>90</v>
@@ -4286,13 +4325,22 @@
       <c r="G4" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>90</v>
@@ -4309,13 +4357,22 @@
       <c r="G5" s="2">
         <v>1020070</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>90</v>
@@ -4332,13 +4389,22 @@
       <c r="G6" s="2">
         <v>70000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>90</v>
@@ -4355,13 +4421,22 @@
       <c r="G7" s="2">
         <v>1195360</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>90</v>
@@ -4376,7 +4451,16 @@
         <v>206</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1803</v>
       </c>
     </row>
   </sheetData>
@@ -4394,16 +4478,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4411,16 +4495,16 @@
         <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4428,16 +4512,16 @@
         <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4445,16 +4529,16 @@
         <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4462,16 +4546,16 @@
         <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4479,16 +4563,16 @@
         <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4496,16 +4580,16 @@
         <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4513,16 +4597,16 @@
         <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4530,16 +4614,16 @@
         <v>200</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4547,16 +4631,16 @@
         <v>201</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4564,16 +4648,16 @@
         <v>203</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4581,16 +4665,16 @@
         <v>204</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4598,16 +4682,16 @@
         <v>205</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4615,16 +4699,16 @@
         <v>206</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4632,16 +4716,16 @@
         <v>207</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4649,16 +4733,16 @@
         <v>208</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4666,16 +4750,16 @@
         <v>209</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4683,16 +4767,16 @@
         <v>210</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4700,10 +4784,10 @@
         <v>211</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>90</v>
@@ -4715,10 +4799,10 @@
         <v>212</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>90</v>
@@ -4730,10 +4814,10 @@
         <v>213</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>90</v>
@@ -4745,10 +4829,10 @@
         <v>214</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>90</v>
@@ -4760,10 +4844,10 @@
         <v>215</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>90</v>
@@ -4775,10 +4859,10 @@
         <v>216</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>90</v>
@@ -4790,10 +4874,10 @@
         <v>217</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>90</v>
@@ -4805,10 +4889,10 @@
         <v>218</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>90</v>
@@ -4820,10 +4904,10 @@
         <v>219</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>90</v>
@@ -4835,10 +4919,10 @@
         <v>220</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>91</v>
@@ -4850,10 +4934,10 @@
         <v>221</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>91</v>
@@ -4865,10 +4949,10 @@
         <v>222</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>91</v>
@@ -4880,10 +4964,10 @@
         <v>223</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>91</v>
@@ -4895,13 +4979,13 @@
         <v>224</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -4910,13 +4994,13 @@
         <v>225</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -4925,13 +5009,13 @@
         <v>226</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -4940,13 +5024,13 @@
         <v>227</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -4955,10 +5039,10 @@
         <v>229</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>91</v>
@@ -4970,10 +5054,10 @@
         <v>230</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>91</v>
@@ -4985,10 +5069,10 @@
         <v>231</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>91</v>
@@ -5013,19 +5097,19 @@
         <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5033,13 +5117,13 @@
         <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E2" s="2">
         <v>1700000</v>
@@ -5048,7 +5132,7 @@
         <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5056,22 +5140,22 @@
         <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5079,22 +5163,22 @@
         <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E4" s="2">
         <v>2940000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5102,22 +5186,22 @@
         <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="E5" s="2">
         <v>4483703</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5125,22 +5209,22 @@
         <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E6" s="2">
         <v>399935</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5158,22 +5242,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5184,19 +5268,19 @@
         <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5207,19 +5291,19 @@
         <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5230,19 +5314,19 @@
         <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
+++ b/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="330">
   <si>
     <t>土地坐落</t>
   </si>
@@ -680,6 +680,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -689,10 +692,10 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>★新光合成纖維股份有限 公司</t>
-  </si>
-  <si>
-    <t>★鴻海精密工業股份有限 公司</t>
+    <t>★新光合成纖維股份有限公司</t>
+  </si>
+  <si>
+    <t>★鴻海精密工業股份有限公司</t>
   </si>
   <si>
     <t>★晶豪科技股份有限公司</t>
@@ -707,10 +710,13 @@
     <t>★聯勝光電股份有限公司</t>
   </si>
   <si>
-    <t>★健喬信元醫藥生技股份 有限公司</t>
-  </si>
-  <si>
-    <t>1，746，410</t>
+    <t>★健喬信元醫藥生技股份有限公司</t>
+  </si>
+  <si>
+    <t>1746410</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-05-01</t>
@@ -4204,13 +4210,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>213</v>
       </c>
@@ -4238,13 +4244,16 @@
       <c r="J1" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>90</v>
@@ -4262,21 +4271,24 @@
         <v>1103980</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J2" s="2">
+        <v>232</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" s="2">
         <v>1803</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>90</v>
@@ -4294,21 +4306,24 @@
         <v>300220</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="2">
+        <v>232</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="2">
         <v>1803</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>90</v>
@@ -4326,21 +4341,24 @@
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4" s="2">
+        <v>232</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="2">
         <v>1803</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>90</v>
@@ -4358,21 +4376,24 @@
         <v>1020070</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J5" s="2">
+        <v>232</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="2">
         <v>1803</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>90</v>
@@ -4390,21 +4411,24 @@
         <v>70000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" s="2">
+        <v>232</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="2">
         <v>1803</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>90</v>
@@ -4422,21 +4446,24 @@
         <v>1195360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J7" s="2">
+        <v>232</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="2">
         <v>1803</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>90</v>
@@ -4451,15 +4478,18 @@
         <v>206</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="2">
+        <v>232</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="2">
         <v>1803</v>
       </c>
     </row>
@@ -4478,16 +4508,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4495,16 +4525,16 @@
         <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4512,16 +4542,16 @@
         <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4529,16 +4559,16 @@
         <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4546,16 +4576,16 @@
         <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4563,16 +4593,16 @@
         <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4580,16 +4610,16 @@
         <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4597,16 +4627,16 @@
         <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4614,16 +4644,16 @@
         <v>200</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4631,16 +4661,16 @@
         <v>201</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4648,16 +4678,16 @@
         <v>203</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4665,16 +4695,16 @@
         <v>204</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4682,16 +4712,16 @@
         <v>205</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4699,16 +4729,16 @@
         <v>206</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4716,16 +4746,16 @@
         <v>207</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4733,16 +4763,16 @@
         <v>208</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4750,16 +4780,16 @@
         <v>209</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4767,16 +4797,16 @@
         <v>210</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4784,10 +4814,10 @@
         <v>211</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>90</v>
@@ -4799,10 +4829,10 @@
         <v>212</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>90</v>
@@ -4814,10 +4844,10 @@
         <v>213</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>90</v>
@@ -4829,10 +4859,10 @@
         <v>214</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>90</v>
@@ -4844,10 +4874,10 @@
         <v>215</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>90</v>
@@ -4859,10 +4889,10 @@
         <v>216</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>90</v>
@@ -4874,10 +4904,10 @@
         <v>217</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>90</v>
@@ -4889,10 +4919,10 @@
         <v>218</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>90</v>
@@ -4904,10 +4934,10 @@
         <v>219</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>90</v>
@@ -4919,10 +4949,10 @@
         <v>220</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>91</v>
@@ -4934,10 +4964,10 @@
         <v>221</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>91</v>
@@ -4949,10 +4979,10 @@
         <v>222</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>91</v>
@@ -4964,10 +4994,10 @@
         <v>223</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>91</v>
@@ -4979,13 +5009,13 @@
         <v>224</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -4994,13 +5024,13 @@
         <v>225</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -5009,13 +5039,13 @@
         <v>226</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -5024,13 +5054,13 @@
         <v>227</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -5039,10 +5069,10 @@
         <v>229</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>91</v>
@@ -5054,10 +5084,10 @@
         <v>230</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>91</v>
@@ -5069,10 +5099,10 @@
         <v>231</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>91</v>
@@ -5097,19 +5127,19 @@
         <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5117,13 +5147,13 @@
         <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E2" s="2">
         <v>1700000</v>
@@ -5132,7 +5162,7 @@
         <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5140,22 +5170,22 @@
         <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5163,22 +5193,22 @@
         <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E4" s="2">
         <v>2940000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5186,22 +5216,22 @@
         <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E5" s="2">
         <v>4483703</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5209,22 +5239,22 @@
         <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E6" s="2">
         <v>399935</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -5242,22 +5272,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5268,19 +5298,19 @@
         <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5291,19 +5321,19 @@
         <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5314,19 +5344,19 @@
         <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
+++ b/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="335">
   <si>
     <t>土地坐落</t>
   </si>
@@ -683,6 +683,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -692,25 +695,31 @@
     <t>legislator_id</t>
   </si>
   <si>
-    <t>★新光合成纖維股份有限公司</t>
-  </si>
-  <si>
-    <t>★鴻海精密工業股份有限公司</t>
-  </si>
-  <si>
-    <t>★晶豪科技股份有限公司</t>
-  </si>
-  <si>
-    <t>★精材科技股份有限公司</t>
-  </si>
-  <si>
-    <t>★聯鈞光電股份有限公司</t>
-  </si>
-  <si>
-    <t>★聯勝光電股份有限公司</t>
-  </si>
-  <si>
-    <t>★健喬信元醫藥生技股份有限公司</t>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新光合成纖維股份有限公司</t>
+  </si>
+  <si>
+    <t>鴻海精密工業股份有限公司</t>
+  </si>
+  <si>
+    <t>晶豪科技股份有限公司</t>
+  </si>
+  <si>
+    <t>精材科技股份有限公司</t>
+  </si>
+  <si>
+    <t>聯鈞光電股份有限公司</t>
+  </si>
+  <si>
+    <t>聯勝光電股份有限公司</t>
+  </si>
+  <si>
+    <t>健喬信元醫藥生技股份有限公司</t>
   </si>
   <si>
     <t>1746410</t>
@@ -719,7 +728,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-05-01</t>
+  </si>
+  <si>
+    <t>tmpbf3f1</t>
   </si>
   <si>
     <t>保險公司</t>
@@ -4210,13 +4225,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>213</v>
       </c>
@@ -4247,13 +4262,22 @@
       <c r="K1" s="1" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>90</v>
@@ -4271,24 +4295,33 @@
         <v>1103980</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K2" s="2">
+        <v>236</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="2">
         <v>1803</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N2" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>90</v>
@@ -4306,24 +4339,33 @@
         <v>300220</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="2">
+        <v>236</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="2">
         <v>1803</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N3" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>90</v>
@@ -4341,24 +4383,33 @@
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K4" s="2">
+        <v>236</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="2">
         <v>1803</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N4" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>90</v>
@@ -4376,24 +4427,33 @@
         <v>1020070</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="2">
+        <v>236</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="2">
         <v>1803</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N5" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>90</v>
@@ -4411,24 +4471,33 @@
         <v>70000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K6" s="2">
+        <v>236</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="2">
         <v>1803</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N6" s="2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>90</v>
@@ -4446,24 +4515,33 @@
         <v>1195360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="2">
+        <v>236</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="2">
         <v>1803</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N7" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>90</v>
@@ -4478,19 +4556,28 @@
         <v>206</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="2">
+        <v>236</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="2">
         <v>1803</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="N8" s="2">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4508,16 +4595,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4525,16 +4612,16 @@
         <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4542,16 +4629,16 @@
         <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4559,16 +4646,16 @@
         <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4576,16 +4663,16 @@
         <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4593,16 +4680,16 @@
         <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4610,16 +4697,16 @@
         <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4627,16 +4714,16 @@
         <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4644,16 +4731,16 @@
         <v>200</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4661,16 +4748,16 @@
         <v>201</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4678,16 +4765,16 @@
         <v>203</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4695,16 +4782,16 @@
         <v>204</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4712,16 +4799,16 @@
         <v>205</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4729,16 +4816,16 @@
         <v>206</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4746,16 +4833,16 @@
         <v>207</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4763,16 +4850,16 @@
         <v>208</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4780,16 +4867,16 @@
         <v>209</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4797,16 +4884,16 @@
         <v>210</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>90</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4814,10 +4901,10 @@
         <v>211</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>90</v>
@@ -4829,10 +4916,10 @@
         <v>212</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>90</v>
@@ -4844,10 +4931,10 @@
         <v>213</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>90</v>
@@ -4859,10 +4946,10 @@
         <v>214</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>90</v>
@@ -4874,10 +4961,10 @@
         <v>215</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>90</v>
@@ -4889,10 +4976,10 @@
         <v>216</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>90</v>
@@ -4904,10 +4991,10 @@
         <v>217</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>90</v>
@@ -4919,10 +5006,10 @@
         <v>218</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>90</v>
@@ -4934,10 +5021,10 @@
         <v>219</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>90</v>
@@ -4949,10 +5036,10 @@
         <v>220</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>91</v>
@@ -4964,10 +5051,10 @@
         <v>221</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>91</v>
@@ -4979,10 +5066,10 @@
         <v>222</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>91</v>
@@ -4994,10 +5081,10 @@
         <v>223</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>91</v>
@@ -5009,13 +5096,13 @@
         <v>224</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -5024,13 +5111,13 @@
         <v>225</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -5039,13 +5126,13 @@
         <v>226</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -5054,13 +5141,13 @@
         <v>227</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -5069,10 +5156,10 @@
         <v>229</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>91</v>
@@ -5084,10 +5171,10 @@
         <v>230</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>91</v>
@@ -5099,10 +5186,10 @@
         <v>231</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>91</v>
@@ -5127,19 +5214,19 @@
         <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5147,13 +5234,13 @@
         <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E2" s="2">
         <v>1700000</v>
@@ -5162,7 +5249,7 @@
         <v>119</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5170,22 +5257,22 @@
         <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5193,22 +5280,22 @@
         <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E4" s="2">
         <v>2940000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5216,22 +5303,22 @@
         <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="E5" s="2">
         <v>4483703</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5239,22 +5326,22 @@
         <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>91</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="E6" s="2">
         <v>399935</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5272,22 +5359,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5298,19 +5385,19 @@
         <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5321,19 +5408,19 @@
         <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5344,19 +5431,19 @@
         <v>91</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
+++ b/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
@@ -21,9 +21,492 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="335">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="332">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺中市清水區銀聯段00000603地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段南勢坑小段04880006地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段南勢坑小段04880008±也號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段02140011地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段02390000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段02390001地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段02390002地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03860000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03860003地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03880001地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03880005地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03880006地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03880007地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03880009地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03880010地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03920000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03920002地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段05890000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段05940001地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段05940003地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段05940004地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區龍目井段段水裡社小段00080014地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區遊圜北段段04310000地號</t>
+  </si>
+  <si>
+    <t>臺中市龍井區遊圜北段段05490000地號</t>
+  </si>
+  <si>
+    <t>臺南市柳營區大腿段10920000地號+</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠泰段02550001地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠順段00700000地號</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠順段00700001地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區春安段07970000地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區春安段07970001地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區春安段07970002地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區春安段07980000地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區春安段07980001地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區春安段07990006地號</t>
+  </si>
+  <si>
+    <t>臺中市南屯區春安段08040001地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區鹿寮段02620013</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區鹿寮段02620161地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區鹿寮段02620259地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段01960002地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段01920003地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段01970003地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段02140001地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段02150000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段02210001地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段02360008地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03120002地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段02400016地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03120007地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03140000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03140003地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03390000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03390002地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03390003地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段03520000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段04390003地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段04500003地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段05540008地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段09810051地號</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區梧棲段27950000地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段01960005地號</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區南勢坑段埔子小段01970014地號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>36分之3</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>48分之11</t>
+  </si>
+  <si>
+    <t>37644分之4765</t>
+  </si>
+  <si>
+    <t>14040分之3662</t>
+  </si>
+  <si>
+    <t>6240分之1831</t>
+  </si>
+  <si>
+    <t>100分之10</t>
+  </si>
+  <si>
+    <t>91200分之9184</t>
+  </si>
+  <si>
+    <t>10000分之590</t>
+  </si>
+  <si>
+    <t>720396分之8750</t>
+  </si>
+  <si>
+    <t>12820分之</t>
+  </si>
+  <si>
+    <t>5分之4</t>
+  </si>
+  <si>
+    <t>6分之1</t>
+  </si>
+  <si>
+    <t>24分之5</t>
+  </si>
+  <si>
+    <t>72分之3</t>
+  </si>
+  <si>
+    <t>180分之75</t>
+  </si>
+  <si>
+    <t>12分之1</t>
+  </si>
+  <si>
+    <t>1000分之59</t>
+  </si>
+  <si>
+    <t>12分之4</t>
+  </si>
+  <si>
+    <t>72分之13</t>
+  </si>
+  <si>
+    <t>顏寬恒</t>
+  </si>
+  <si>
+    <t>陳麗凌</t>
+  </si>
+  <si>
+    <t>101年03月16曰</t>
+  </si>
+  <si>
+    <t>96年10月26日</t>
+  </si>
+  <si>
+    <t>93年02月27日</t>
+  </si>
+  <si>
+    <t>97年03月13日</t>
+  </si>
+  <si>
+    <t>97年03月13曰</t>
+  </si>
+  <si>
+    <t>100年03月31曰</t>
+  </si>
+  <si>
+    <t>99年12月30日</t>
+  </si>
+  <si>
+    <t>96年10月26日■</t>
+  </si>
+  <si>
+    <t>100年11月23曰</t>
+  </si>
+  <si>
+    <t>95年03月31曰</t>
+  </si>
+  <si>
+    <t>95年03月31日</t>
+  </si>
+  <si>
+    <t>102年03月07曰</t>
+  </si>
+  <si>
+    <t>101年06月19曰</t>
+  </si>
+  <si>
+    <t>97年04月18日</t>
+  </si>
+  <si>
+    <t>98年07月27日</t>
+  </si>
+  <si>
+    <t>100年11月24曰</t>
+  </si>
+  <si>
+    <t>92年09月01日</t>
+  </si>
+  <si>
+    <t>99年09月13日</t>
+  </si>
+  <si>
+    <t>99年09月13曰</t>
+  </si>
+  <si>
+    <t>95年10月</t>
+  </si>
+  <si>
+    <t>91年07月02日</t>
+  </si>
+  <si>
+    <t>94年08月02日</t>
+  </si>
+  <si>
+    <t>93年03月16曰</t>
+  </si>
+  <si>
+    <t>89年03月07日</t>
+  </si>
+  <si>
+    <t>93年03月16日</t>
+  </si>
+  <si>
+    <t>93年02月27曰</t>
+  </si>
+  <si>
+    <t>99年07月15日</t>
+  </si>
+  <si>
+    <t>99年12月01日</t>
+  </si>
+  <si>
+    <t>101年06月17曰</t>
+  </si>
+  <si>
+    <t>98年12月08日</t>
+  </si>
+  <si>
+    <t>97年02月13日</t>
+  </si>
+  <si>
+    <t>95年06月09日</t>
+  </si>
+  <si>
+    <t>101年05月08曰</t>
+  </si>
+  <si>
+    <t>96年04月18日</t>
+  </si>
+  <si>
+    <t>89年.07月19日</t>
+  </si>
+  <si>
+    <t>87年05月19日</t>
+  </si>
+  <si>
+    <t>95年12月25日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>CCX3貝買</t>
+  </si>
+  <si>
+    <t>033=貝買</t>
+  </si>
+  <si>
+    <t>cra=貝貫</t>
+  </si>
+  <si>
+    <t>共有物分割</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>COZ|=貝買</t>
+  </si>
+  <si>
+    <t>naii=fe貝買</t>
+  </si>
+  <si>
+    <t>Cn3ri—~貝賣</t>
+  </si>
+  <si>
+    <t>crn=貝買</t>
+  </si>
+  <si>
+    <t>m=n=to貝買</t>
+  </si>
+  <si>
+    <t>cccr.貝買</t>
+  </si>
+  <si>
+    <t>nrra=貝買</t>
+  </si>
+  <si>
+    <t>cca=貝買</t>
+  </si>
+  <si>
+    <t>貝買</t>
+  </si>
+  <si>
+    <t>rrxf=貝賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>27600</t>
+  </si>
+  <si>
+    <t>7590</t>
+  </si>
+  <si>
+    <t>71676</t>
+  </si>
+  <si>
+    <t>21120</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-05-01</t>
+  </si>
+  <si>
+    <t>tmpbf3f1</t>
+  </si>
+  <si>
+    <t>建物標.示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -35,519 +518,84 @@
     <t>所有權人</t>
   </si>
   <si>
+    <t>登記（取得)時間</t>
+  </si>
+  <si>
+    <t>登記（取得）原因</t>
+  </si>
+  <si>
+    <t>取得價額</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠來里惠文三街</t>
+  </si>
+  <si>
+    <t>臺中市西屯區潮洋里朝貴路</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區鹿寮里光榮街</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區鹿寮里成功東街</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區三鹿里保順路</t>
+  </si>
+  <si>
+    <t>臺中市沙鹿區埔子里正義路</t>
+  </si>
+  <si>
+    <t>臺中市西屯區惠來里惠文三</t>
+  </si>
+  <si>
+    <t>臺中市梧棲區頂寮里四維中路</t>
+  </si>
+  <si>
+    <t>全部—</t>
+  </si>
+  <si>
+    <t>100年11月24日</t>
+  </si>
+  <si>
+    <t>95年10月25日</t>
+  </si>
+  <si>
+    <t>97年02月13曰</t>
+  </si>
+  <si>
+    <t>92年09月</t>
+  </si>
+  <si>
+    <t>96年01月31日</t>
+  </si>
+  <si>
+    <t>96年01月31曰</t>
+  </si>
+  <si>
+    <t>0x1=貝買</t>
+  </si>
+  <si>
+    <t>£XXj=貝賈</t>
+  </si>
+  <si>
+    <t>rm=貝買</t>
+  </si>
+  <si>
+    <t>買賣.</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
     <t>登記（取得）時間</t>
   </si>
   <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺中市清水區銀聯段0000-0603 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段南勢坑 小段0488-0006地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段南勢坑 小段0488-0008 ±也號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0214-0011地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0239-0000地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0239-0001地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0239-0002地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0386-0000地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0386-0003地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0388-0001地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0388-0005地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0388-0006地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0388-0007地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0388-0009地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0388-0010地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0392-0000地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0392-0002地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0589-0000地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0594-0001地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0594-0003地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0594-0004地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區龍目井段段水裡 社小段0008-0014地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區遊圜北段段 0431-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市龍井區遊圜北段段 0549-0000 地號</t>
-  </si>
-  <si>
-    <t>臺南市柳營區大腿段1092-0000 地號 +</t>
-  </si>
-  <si>
-    <t>臺中市西屯區惠泰段0255-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區惠順段0070-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市西屯區惠順段0070-0001 地號</t>
-  </si>
-  <si>
-    <t>'★臺中市南屯區春安段 0797-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區春安段0797-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區春安段0797-0002 地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區春安段0798-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區春安段0798-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區春安段0799-0006 地號</t>
-  </si>
-  <si>
-    <t>臺中市南屯區春安段0804-0001 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區鹿寮段0262-0013</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區鹿寮段0262-0161 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區鹿寮段0262-0259 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0196-0002地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0192-0003地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0197-0003地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0214-0001地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0215-0000地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0221-0001地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0236-0008地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0312-0002地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0240-0016地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0312-0007地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0314-0000地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0314-0003地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0339-0000地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0339-0002地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0339-0003地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0352-0000地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0439-0003地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0450-0003地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0554-0008地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0981-0051地號</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區梧棲段2795-0000 地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0196-0005地號</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區南勢坑段埔子小 段0197-0014地號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>36分之3</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>48分之11</t>
-  </si>
-  <si>
-    <t>37644分之 4765</t>
-  </si>
-  <si>
-    <t>14040分之 3662</t>
-  </si>
-  <si>
-    <t>6240分之 1831</t>
-  </si>
-  <si>
-    <t>100分之10</t>
-  </si>
-  <si>
-    <t>91200分之 9184</t>
-  </si>
-  <si>
-    <t>10000分之 590</t>
-  </si>
-  <si>
-    <t>720396 分 之 8750</t>
-  </si>
-  <si>
-    <t>12820分之</t>
-  </si>
-  <si>
-    <t>全部'</t>
-  </si>
-  <si>
-    <t>5分之4</t>
-  </si>
-  <si>
-    <t>6分之1</t>
-  </si>
-  <si>
-    <t>24分之5</t>
-  </si>
-  <si>
-    <t>72分之3</t>
-  </si>
-  <si>
-    <t>180分之75</t>
-  </si>
-  <si>
-    <t>12分之1</t>
-  </si>
-  <si>
-    <t>1000分之 59</t>
-  </si>
-  <si>
-    <t>12分之4</t>
-  </si>
-  <si>
-    <t>72分之13</t>
-  </si>
-  <si>
-    <t>顏寬恒</t>
-  </si>
-  <si>
-    <t>陳麗凌</t>
-  </si>
-  <si>
-    <t>101 年 03 月16曰</t>
-  </si>
-  <si>
-    <t>96年10月 26日</t>
-  </si>
-  <si>
-    <t>93年02月 27日</t>
-  </si>
-  <si>
-    <t>97年03月 13日</t>
-  </si>
-  <si>
-    <t>97年03月 13曰</t>
-  </si>
-  <si>
-    <t>100 年 03 月31曰</t>
-  </si>
-  <si>
-    <t>99年12月 30日</t>
-  </si>
-  <si>
-    <t>96年10月 26日 ■</t>
-  </si>
-  <si>
-    <t>100 年 11 月23曰</t>
-  </si>
-  <si>
-    <t>95年03月 31曰</t>
-  </si>
-  <si>
-    <t>95年03月 31日</t>
-  </si>
-  <si>
-    <t>102 年 03 月07曰</t>
-  </si>
-  <si>
-    <t>101 年 06 月19曰</t>
-  </si>
-  <si>
-    <t>97年04月 18日</t>
-  </si>
-  <si>
-    <t>98年07月 27日</t>
-  </si>
-  <si>
-    <t>100 年 11 月24曰</t>
-  </si>
-  <si>
-    <t>92年09月 01日</t>
-  </si>
-  <si>
-    <t>99年09月 13日</t>
-  </si>
-  <si>
-    <t>99年09月 13曰</t>
-  </si>
-  <si>
-    <t>95年10月</t>
-  </si>
-  <si>
-    <t>91年07月 02日</t>
-  </si>
-  <si>
-    <t>94年08月 02日</t>
-  </si>
-  <si>
-    <t>93年03月 16曰</t>
-  </si>
-  <si>
-    <t>89年03月 07日</t>
-  </si>
-  <si>
-    <t>93年03月 16日</t>
-  </si>
-  <si>
-    <t>93年02月 27曰</t>
-  </si>
-  <si>
-    <t>99年07月 15日</t>
-  </si>
-  <si>
-    <t>99年12月 01日</t>
-  </si>
-  <si>
-    <t>101 年 06 月17曰</t>
-  </si>
-  <si>
-    <t>98年12月 08日</t>
-  </si>
-  <si>
-    <t>97年02月 13日</t>
-  </si>
-  <si>
-    <t>95年06月 09日</t>
-  </si>
-  <si>
-    <t>101 年 05 月08曰</t>
-  </si>
-  <si>
-    <t>96年04月 18日</t>
-  </si>
-  <si>
-    <t>89年.07月 19日</t>
-  </si>
-  <si>
-    <t>87年05月 19日</t>
-  </si>
-  <si>
-    <t>95年12月 25日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>CCX3-^^ 貝買</t>
-  </si>
-  <si>
-    <t>033-=^ 貝買</t>
-  </si>
-  <si>
-    <t>cra-=^ 貝貫</t>
-  </si>
-  <si>
-    <t>共有物分 割</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>COZ|-=^ 貝買</t>
-  </si>
-  <si>
-    <t>naii-=fe 貝買</t>
-  </si>
-  <si>
-    <t>Cn3 'r-i—~ 貝賣</t>
-  </si>
-  <si>
-    <t>crn-=^ 貝買</t>
-  </si>
-  <si>
-    <t>m=n-=to 貝買</t>
-  </si>
-  <si>
-    <t>cccr'-^^' . 貝買</t>
-  </si>
-  <si>
-    <t>nrra-=^ 貝買</t>
-  </si>
-  <si>
-    <t>cca-=^ 貝買</t>
-  </si>
-  <si>
-    <t>貝買</t>
-  </si>
-  <si>
-    <t>rrxf=^ 貝賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>27，600</t>
-  </si>
-  <si>
-    <t>7，590</t>
-  </si>
-  <si>
-    <t>71，676</t>
-  </si>
-  <si>
-    <t>21，120</t>
-  </si>
-  <si>
-    <t>建物標.示</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>★臺中市西屯區惠來里惠文三 街</t>
-  </si>
-  <si>
-    <t>★臺中市西屯區潮洋里朝貴路</t>
-  </si>
-  <si>
-    <t>★臺中市沙鹿區鹿寮里光榮街</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區鹿寮里成功東街</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區三鹿里保順路</t>
-  </si>
-  <si>
-    <t>臺中市沙鹿區埔子里正義路</t>
-  </si>
-  <si>
-    <t>★臺中市西屯區惠來里惠文三</t>
-  </si>
-  <si>
-    <t>臺中市梧棲區頂寮里四維中路</t>
-  </si>
-  <si>
-    <t>全部 —</t>
-  </si>
-  <si>
-    <t>100 年 11 月24日</t>
-  </si>
-  <si>
-    <t>95年10月 25日</t>
-  </si>
-  <si>
-    <t>97年02月 13曰</t>
-  </si>
-  <si>
-    <t>92年09月</t>
-  </si>
-  <si>
-    <t>96年01月 31日</t>
-  </si>
-  <si>
-    <t>96年01月 31曰</t>
-  </si>
-  <si>
-    <t>0x1-=^ 貝買</t>
-  </si>
-  <si>
-    <t>£XXj=^ 貝賈</t>
-  </si>
-  <si>
-    <t>rm-=^ 貝買</t>
-  </si>
-  <si>
-    <t>買賣.-</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
     <t>NISSAN</t>
   </si>
   <si>
@@ -557,16 +605,16 @@
     <t>LEXUS</t>
   </si>
   <si>
-    <t>101 年 08 月07日</t>
-  </si>
-  <si>
-    <t>95年01月 01日</t>
-  </si>
-  <si>
-    <t>93年01月 01日</t>
-  </si>
-  <si>
-    <t>100 年 03 月03日</t>
+    <t>101年08月07日</t>
+  </si>
+  <si>
+    <t>95年01月01日</t>
+  </si>
+  <si>
+    <t>93年01月01日</t>
+  </si>
+  <si>
+    <t>100年03月03日</t>
   </si>
   <si>
     <t>買賣』</t>
@@ -593,37 +641,28 @@
     <t>臺灣土地銀行沙鹿分行</t>
   </si>
   <si>
-    <t>臺灣土地銀行沙'鹿分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行沙鹿分 行</t>
+    <t>合作金庫商業銀行沙鹿分行</t>
   </si>
   <si>
     <t>臺灣土地銀行丨少鹿分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行文心分 行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行公益分 行</t>
+    <t>合作金庫商業銀行文心分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行公益分行</t>
   </si>
   <si>
     <t>花旗（台灣）銀行文心分行</t>
   </si>
   <si>
-    <t>★臺灣土地銀行沙鹿分行</t>
-  </si>
-  <si>
-    <t>★國泰世華商業銀行沙鹿 分行</t>
-  </si>
-  <si>
-    <t>★兆豐國際商業銀行沙鹿 分行</t>
-  </si>
-  <si>
-    <t>★兆豐國際商業銀行沙鹿 分行 、</t>
-  </si>
-  <si>
-    <t>★花旗（台灣)商業銀行文 心分行</t>
+    <t>國泰世華商業銀行沙鹿分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行沙鹿分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣)商業銀行文心分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -656,16 +695,10 @@
     <t>顏〇朋</t>
   </si>
   <si>
-    <t>.16,125</t>
-  </si>
-  <si>
-    <t>58，606，080</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>.16125</t>
+  </si>
+  <si>
+    <t>58606080</t>
   </si>
   <si>
     <t>quantity</t>
@@ -680,27 +713,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>新光合成纖維股份有限公司</t>
   </si>
   <si>
@@ -728,15 +740,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-05-01</t>
-  </si>
-  <si>
-    <t>tmpbf3f1</t>
-  </si>
-  <si>
     <t>保險公司</t>
   </si>
   <si>
@@ -752,9 +755,6 @@
     <t>台灣人壽</t>
   </si>
   <si>
-    <t>★台灣人壽</t>
-  </si>
-  <si>
     <t>富邦人壽</t>
   </si>
   <si>
@@ -767,70 +767,61 @@
     <t>國泰人壽</t>
   </si>
   <si>
-    <t>★全球人壽</t>
-  </si>
-  <si>
-    <t>★蘇黎世國際人壽</t>
-  </si>
-  <si>
-    <t>★國泰人壽</t>
-  </si>
-  <si>
-    <t>★南山人壽</t>
-  </si>
-  <si>
-    <t>★中國人壽</t>
-  </si>
-  <si>
-    <t>★三商美邦人壽</t>
-  </si>
-  <si>
-    <t>台灣人壽新富貴年年變額年 金保險</t>
-  </si>
-  <si>
-    <t>台灣人壽舞動人生變額萬能 壽險</t>
-  </si>
-  <si>
-    <t>台灣人壽新真愛一世情终身 壽險</t>
-  </si>
-  <si>
-    <t>台灣人壽新真愛一世情終身 壽險</t>
-  </si>
-  <si>
-    <t>台灣人壽鑫美利外幣终身壽 險</t>
-  </si>
-  <si>
-    <t>台灣人壽鑫美利外幣終身_ 險</t>
-  </si>
-  <si>
-    <t>台灣人壽鑫美利外幣終身壽 險</t>
-  </si>
-  <si>
-    <t>台灣人壽健康新生活終身保 險</t>
+    <t>全球人壽</t>
+  </si>
+  <si>
+    <t>蘇黎世國際人壽</t>
+  </si>
+  <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
+    <t>台灣人壽新富貴年年變額年金保險</t>
+  </si>
+  <si>
+    <t>台灣人壽舞動人生變額萬能壽險</t>
+  </si>
+  <si>
+    <t>台灣人壽新真愛一世情终身壽險</t>
+  </si>
+  <si>
+    <t>台灣人壽新真愛一世情終身壽險</t>
+  </si>
+  <si>
+    <t>台灣人壽鑫美利外幣终身壽險</t>
+  </si>
+  <si>
+    <t>台灣人壽鑫美利外幣終身險</t>
+  </si>
+  <si>
+    <t>台灣人壽鑫美利外幣終身壽險</t>
+  </si>
+  <si>
+    <t>台灣人壽健康新生活終身保險</t>
   </si>
   <si>
     <t>台灣人壽長期看護終身壽險</t>
   </si>
   <si>
-    <t>台灣人壽真愛一世情終身壽 險</t>
-  </si>
-  <si>
-    <t>台灣人壽健康新生活終身壽 險</t>
-  </si>
-  <si>
-    <t>富邦人壽金康福保本終身壽 險</t>
+    <t>台灣人壽真愛一世情終身壽險</t>
+  </si>
+  <si>
+    <t>台灣人壽健康新生活終身壽險</t>
+  </si>
+  <si>
+    <t>富邦人壽金康福保本終身壽險</t>
   </si>
   <si>
     <t>迎向陽光終身壽險(乙型）</t>
   </si>
   <si>
-    <t>南山十年繳費新年年春還本 终身保險</t>
+    <t>南山十年繳費新年年春還本终身保險</t>
   </si>
   <si>
     <t>南山新康祥終身壽險B型</t>
   </si>
   <si>
-    <t>南山十年繳費新年年春還本 終身保險</t>
+    <t>南山十年繳費新年年春還本終身保險</t>
   </si>
   <si>
     <t>萬代福211終身</t>
@@ -857,7 +848,7 @@
     <t>安順手術醫療終身保險</t>
   </si>
   <si>
-    <t>南山人壽繳費新年年春還本 终身保險</t>
+    <t>南山人壽繳費新年年春還本终身保險</t>
   </si>
   <si>
     <t>南山人壽新終身醫療保險</t>
@@ -881,55 +872,55 @@
     <t>凍麗凌</t>
   </si>
   <si>
-    <t>保單號碼：01005149 9 3</t>
-  </si>
-  <si>
-    <t>保單號碼：0 1 0 0 8 7 0 ◦ 5 8</t>
-  </si>
-  <si>
-    <t>保單號碼：0 1 0 0 8 8 1 8 1 9</t>
-  </si>
-  <si>
-    <t>保單號碼：0 1 0 0 8 8 1 8 2 8 (乙型)</t>
-  </si>
-  <si>
-    <t>保單號碼：0 1 0 0 8 8 1 8 4 6(乙型）</t>
-  </si>
-  <si>
-    <t>保單號碼：1 0 0 5 6 2 6 5 3 1</t>
-  </si>
-  <si>
-    <t>保單號碼：1 0 0 5 6 2 6 5 0 5</t>
-  </si>
-  <si>
-    <t>保單號碼：1 0 0 5 6 2 6 4 8 8</t>
-  </si>
-  <si>
-    <t>保單號碼：1 0 0 9 6 0 6 8 0 2</t>
-  </si>
-  <si>
-    <t>保單號碼：1 0 0 9 6 0 6 7 9 5</t>
-  </si>
-  <si>
-    <t>保單號碼：1 0 0 9 6 0 6 8 1 1</t>
-  </si>
-  <si>
-    <t>保單號碼：10 0 3 9 4 5 8 3 7</t>
-  </si>
-  <si>
-    <t>保單號碼：1 0 0 4 5 5 9 0 7 7</t>
-  </si>
-  <si>
-    <t>保單號碼：1 0 0 7 2 1 4 3 8 8</t>
-  </si>
-  <si>
-    <t>保單號碼：1 0 0 1 1 6 6 7 8 5</t>
-  </si>
-  <si>
-    <t>保單號碼：1 0 0 2 9 2 7 4 8 8</t>
-  </si>
-  <si>
-    <t>保單號碼：1 0 0 2 9 2 7 5 0 5</t>
+    <t>保單號碼：0100514993</t>
+  </si>
+  <si>
+    <t>保單號碼：0100870◦58</t>
+  </si>
+  <si>
+    <t>保單號碼：0100881819</t>
+  </si>
+  <si>
+    <t>保單號碼：0100881828(乙型)</t>
+  </si>
+  <si>
+    <t>保單號碼：0100881846(乙型）</t>
+  </si>
+  <si>
+    <t>保單號碼：1005626531</t>
+  </si>
+  <si>
+    <t>保單號碼：1005626505</t>
+  </si>
+  <si>
+    <t>保單號碼：1005626488</t>
+  </si>
+  <si>
+    <t>保單號碼：1009606802</t>
+  </si>
+  <si>
+    <t>保單號碼：1009606795</t>
+  </si>
+  <si>
+    <t>保單號碼：1009606811</t>
+  </si>
+  <si>
+    <t>保單號碼：1003945837</t>
+  </si>
+  <si>
+    <t>保單號碼：1004559077</t>
+  </si>
+  <si>
+    <t>保單號碼：1007214388</t>
+  </si>
+  <si>
+    <t>保單號碼：1001166785</t>
+  </si>
+  <si>
+    <t>保單號碼：1002927488</t>
+  </si>
+  <si>
+    <t>保單號碼：1002927505</t>
   </si>
   <si>
     <t>債務人</t>
@@ -959,34 +950,34 @@
     <t>顏寬恆</t>
   </si>
   <si>
-    <t>大肚區農會 臺中市大肚區大肚里沙田路 2段683號</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行 臺北市信義區松仁路7號1 樓</t>
-  </si>
-  <si>
-    <t>台中商業銀行 臺中市西區民權路87號1樓</t>
-  </si>
-  <si>
-    <t>23，700，000</t>
-  </si>
-  <si>
-    <t>100年02月 25日</t>
-  </si>
-  <si>
-    <t>97年01月 07日</t>
-  </si>
-  <si>
-    <t>95年12月 01日</t>
+    <t>大肚區農會臺中市大肚區大肚里沙田路2段683號</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行臺北市信義區松仁路7號1樓</t>
+  </si>
+  <si>
+    <t>台中商業銀行臺中市西區民權路87號1樓</t>
+  </si>
+  <si>
+    <t>23700000</t>
+  </si>
+  <si>
+    <t>100年02月25日</t>
+  </si>
+  <si>
+    <t>97年01月07日</t>
+  </si>
+  <si>
+    <t>95年12月01日</t>
   </si>
   <si>
     <t>貸款</t>
   </si>
   <si>
-    <t>一般房貸一 長擔</t>
-  </si>
-  <si>
-    <t>一般房貸一 長放</t>
+    <t>一般房貸一長擔</t>
+  </si>
+  <si>
+    <t>一般房貸一長放</t>
   </si>
   <si>
     <t>投資人</t>
@@ -1007,22 +998,22 @@
     <t>僑鴻國際開發（股）公司</t>
   </si>
   <si>
-    <t>臺中市鹿寮里成功東街93 號</t>
-  </si>
-  <si>
-    <t>18，000,000</t>
-  </si>
-  <si>
-    <t>25，000，000</t>
-  </si>
-  <si>
-    <t>5，000，000</t>
-  </si>
-  <si>
-    <t>96年10月 11曰</t>
-  </si>
-  <si>
-    <t>94年10月 17日</t>
+    <t>臺中市鹿寮里成功東街93號</t>
+  </si>
+  <si>
+    <t>18000000</t>
+  </si>
+  <si>
+    <t>25000000</t>
+  </si>
+  <si>
+    <t>5000000</t>
+  </si>
+  <si>
+    <t>96年10月11曰</t>
+  </si>
+  <si>
+    <t>94年10月17日</t>
   </si>
   <si>
     <t>公司設立</t>
@@ -1384,13 +1375,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1412,1747 +1403,3175 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>282</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H2" s="2">
         <v>2601788</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>4292</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1463</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1319</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>3100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>1860</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>2480</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>2281</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>2281</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H10" s="2">
         <v>16195100</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>1340</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O12" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O13" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O14" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2">
         <v>713</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C17" s="2">
         <v>525</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
         <v>618</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19" s="2">
         <v>9396</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H19" s="2">
         <v>2140812</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C20" s="2">
         <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O20" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C21" s="2">
         <v>576</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O21" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <v>731</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H22" s="2">
         <v>995726</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O22" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C23" s="2">
         <v>191</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H23" s="2">
         <v>113887</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M23" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O23" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <v>4911.55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O24" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C25" s="2">
         <v>1195.92</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O25" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C26" s="2">
         <v>3321</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H26" s="2">
         <v>3985200</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M26" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O26" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="2">
         <v>527.79</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H27" s="2">
         <v>31561842</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M27" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O27" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
         <v>792.23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O28" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C29" s="2">
         <v>91.89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O29" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C30" s="2">
         <v>10567</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H30" s="2">
         <v>2951820</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O30" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2">
         <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M31" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O31" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C32" s="2">
         <v>895</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M32" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O32" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C33" s="2">
         <v>5570</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H33" s="2">
         <v>446226</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M33" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O33" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C34" s="2">
         <v>1079</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="H34" s="2">
         <v>86394</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O34" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C35" s="2">
         <v>264</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>156</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M35" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O35" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H36" s="2">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M36" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O36" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <v>641</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O37" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>54</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <v>81</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O38" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C39" s="2">
         <v>144</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O39" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>56</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2">
         <v>153</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M40" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O40" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>57</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C41" s="2">
         <v>106</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M41" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O41" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C42" s="2">
         <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M42" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O42" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>59</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C43" s="2">
         <v>259</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M43" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O43" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>60</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2">
         <v>463</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H44" s="2">
         <v>567341</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O44" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C45" s="2">
         <v>495</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H45" s="2">
         <v>3880800</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O45" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>62</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C46" s="2">
         <v>1376</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H46" s="2">
         <v>12934400</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M46" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O46" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>63</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2">
         <v>265</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H47" s="2">
         <v>156768</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M47" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O47" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>64</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C48" s="2">
         <v>80</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M48" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O48" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>65</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C49" s="2">
         <v>53</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="H49" s="2">
         <v>31311</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M49" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O49" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>66</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2">
         <v>805</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H50" s="2">
         <v>756267</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O50" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>67</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2">
         <v>73</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H51" s="2">
         <v>431680</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O51" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>68</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C52" s="2">
         <v>3084</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M52" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O52" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>69</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C53" s="2">
         <v>975</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M53" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O53" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>70</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C54" s="2">
         <v>440</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M54" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O54" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>71</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C55" s="2">
         <v>1254</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M55" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O55" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C56" s="2">
         <v>2283</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M56" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O56" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>73</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2">
         <v>137</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M57" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O57" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C58" s="2">
         <v>437</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M58" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O58" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>76</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C59" s="2">
         <v>361</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H59" s="2">
         <v>295996</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M59" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O59" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>77</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C60" s="2">
         <v>1040</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M60" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O60" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>78</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C61" s="2">
         <v>792.23</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M61" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O61" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
         <v>79</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C62" s="2">
         <v>106</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O62" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
         <v>80</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2">
         <v>86</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O63" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>81</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2">
         <v>61</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O64" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
         <v>82</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C65" s="2">
         <v>3084</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O65" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
         <v>83</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C66" s="2">
         <v>975</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M66" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O66" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" s="1">
         <v>84</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C67" s="2">
         <v>440</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>152</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O67" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" s="1">
         <v>85</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2">
         <v>91.89</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O68" s="2">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3170,25 +4589,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3196,25 +4615,25 @@
         <v>90</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2">
         <v>467.5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3222,22 +4641,22 @@
         <v>91</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2">
         <v>774.2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H3" s="2">
         <v>1931500</v>
@@ -3248,25 +4667,25 @@
         <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C4" s="2">
         <v>302.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3274,25 +4693,25 @@
         <v>93</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="C5" s="2">
         <v>345.2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3300,25 +4719,25 @@
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C6" s="2">
         <v>230.1</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3326,25 +4745,25 @@
         <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2">
         <v>260.2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3352,25 +4771,25 @@
         <v>96</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C8" s="2">
         <v>39.4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3378,25 +4797,25 @@
         <v>97</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C9" s="2">
         <v>491</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3404,25 +4823,25 @@
         <v>98</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C10" s="2">
         <v>357.6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3430,25 +4849,25 @@
         <v>99</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2">
         <v>467.5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3456,25 +4875,25 @@
         <v>102</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C12" s="2">
         <v>456</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3482,25 +4901,25 @@
         <v>103</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="C13" s="2">
         <v>314.9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3508,25 +4927,25 @@
         <v>104</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2">
         <v>140.9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3544,22 +4963,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3567,19 +4986,19 @@
         <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2">
         <v>3799</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2">
         <v>1700000</v>
@@ -3590,22 +5009,22 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C3" s="2">
         <v>1170</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3613,22 +5032,22 @@
         <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="C4" s="2">
         <v>5972</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3636,19 +5055,19 @@
         <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C5" s="2">
         <v>3456</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="G5" s="2">
         <v>1400000</v>
@@ -3669,22 +5088,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3692,16 +5111,16 @@
         <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -3713,16 +5132,16 @@
         <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -3734,16 +5153,16 @@
         <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -3755,16 +5174,16 @@
         <v>134</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -3776,20 +5195,20 @@
         <v>135</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3797,16 +5216,16 @@
         <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -3818,16 +5237,16 @@
         <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2">
         <v>35712</v>
@@ -3841,16 +5260,16 @@
         <v>139</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -3862,16 +5281,16 @@
         <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2">
         <v>87695</v>
@@ -3885,16 +5304,16 @@
         <v>141</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -3906,16 +5325,16 @@
         <v>142</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -3927,16 +5346,16 @@
         <v>143</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -3948,16 +5367,16 @@
         <v>144</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -3969,16 +5388,16 @@
         <v>145</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -3990,16 +5409,16 @@
         <v>146</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -4011,16 +5430,16 @@
         <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2">
@@ -4032,16 +5451,16 @@
         <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2">
@@ -4053,16 +5472,16 @@
         <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2">
@@ -4074,16 +5493,16 @@
         <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
@@ -4095,16 +5514,16 @@
         <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
@@ -4116,16 +5535,16 @@
         <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F22" s="2">
         <v>26565</v>
@@ -4139,20 +5558,20 @@
         <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4160,16 +5579,16 @@
         <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2">
@@ -4181,16 +5600,16 @@
         <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2">
@@ -4202,16 +5621,16 @@
         <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2">
@@ -4233,43 +5652,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>214</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>219</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>220</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>222</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>223</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>225</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4277,10 +5696,10 @@
         <v>163</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2">
         <v>110398</v>
@@ -4289,28 +5708,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G2" s="2">
         <v>1103980</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L2" s="2">
         <v>1803</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="N2" s="2">
         <v>163</v>
@@ -4321,10 +5740,10 @@
         <v>164</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2">
         <v>30022</v>
@@ -4333,28 +5752,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G3" s="2">
         <v>300220</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L3" s="2">
         <v>1803</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="N3" s="2">
         <v>164</v>
@@ -4365,10 +5784,10 @@
         <v>165</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2">
         <v>10000</v>
@@ -4377,28 +5796,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G4" s="2">
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L4" s="2">
         <v>1803</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="N4" s="2">
         <v>165</v>
@@ -4409,10 +5828,10 @@
         <v>166</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2">
         <v>102007</v>
@@ -4421,28 +5840,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G5" s="2">
         <v>1020070</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L5" s="2">
         <v>1803</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="N5" s="2">
         <v>166</v>
@@ -4453,10 +5872,10 @@
         <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2">
         <v>7000</v>
@@ -4465,28 +5884,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G6" s="2">
         <v>70000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L6" s="2">
         <v>1803</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="N6" s="2">
         <v>168</v>
@@ -4497,10 +5916,10 @@
         <v>169</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2">
         <v>119536</v>
@@ -4509,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G7" s="2">
         <v>1195360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" s="2">
         <v>1803</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="N7" s="2">
         <v>169</v>
@@ -4541,10 +5960,10 @@
         <v>170</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D8" s="2">
         <v>174641</v>
@@ -4553,28 +5972,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>235</v>
+        <v>158</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>236</v>
+        <v>159</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L8" s="2">
         <v>1803</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>237</v>
+        <v>160</v>
       </c>
       <c r="N8" s="2">
         <v>170</v>
@@ -4595,16 +6014,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4612,16 +6031,16 @@
         <v>193</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4629,16 +6048,16 @@
         <v>194</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4646,16 +6065,16 @@
         <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4663,16 +6082,16 @@
         <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4680,16 +6099,16 @@
         <v>197</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4697,16 +6116,16 @@
         <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4714,16 +6133,16 @@
         <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4731,16 +6150,16 @@
         <v>200</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4748,16 +6167,16 @@
         <v>201</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4765,16 +6184,16 @@
         <v>203</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4782,16 +6201,16 @@
         <v>204</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4802,13 +6221,13 @@
         <v>243</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4819,13 +6238,13 @@
         <v>243</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4833,16 +6252,16 @@
         <v>207</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4850,16 +6269,16 @@
         <v>208</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4867,16 +6286,16 @@
         <v>209</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4884,16 +6303,16 @@
         <v>210</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4904,10 +6323,10 @@
         <v>244</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -4919,10 +6338,10 @@
         <v>245</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2"/>
     </row>
@@ -4934,10 +6353,10 @@
         <v>246</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E21" s="2"/>
     </row>
@@ -4949,10 +6368,10 @@
         <v>246</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E22" s="2"/>
     </row>
@@ -4964,10 +6383,10 @@
         <v>246</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E23" s="2"/>
     </row>
@@ -4979,10 +6398,10 @@
         <v>247</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E24" s="2"/>
     </row>
@@ -4994,10 +6413,10 @@
         <v>247</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2"/>
     </row>
@@ -5009,10 +6428,10 @@
         <v>247</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E26" s="2"/>
     </row>
@@ -5024,10 +6443,10 @@
         <v>248</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2"/>
     </row>
@@ -5039,10 +6458,10 @@
         <v>249</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2"/>
     </row>
@@ -5051,13 +6470,13 @@
         <v>221</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E29" s="2"/>
     </row>
@@ -5066,13 +6485,13 @@
         <v>222</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -5081,13 +6500,13 @@
         <v>223</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E31" s="2"/>
     </row>
@@ -5096,13 +6515,13 @@
         <v>224</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -5111,13 +6530,13 @@
         <v>225</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -5126,13 +6545,13 @@
         <v>226</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -5141,13 +6560,13 @@
         <v>227</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -5156,13 +6575,13 @@
         <v>229</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E36" s="2"/>
     </row>
@@ -5171,13 +6590,13 @@
         <v>230</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -5186,13 +6605,13 @@
         <v>231</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E38" s="2"/>
     </row>
@@ -5211,22 +6630,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5234,22 +6653,22 @@
         <v>241</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E2" s="2">
         <v>1700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5257,22 +6676,22 @@
         <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="D3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5280,22 +6699,22 @@
         <v>243</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E4" s="2">
         <v>2940000</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5303,22 +6722,22 @@
         <v>244</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="E5" s="2">
         <v>4483703</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5326,22 +6745,22 @@
         <v>245</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E6" s="2">
         <v>399935</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -5359,22 +6778,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -5382,22 +6801,22 @@
         <v>250</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>332</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5405,22 +6824,22 @@
         <v>251</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>333</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5428,22 +6847,22 @@
         <v>252</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
+++ b/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="300">
   <si>
     <t>name</t>
   </si>
@@ -65,7 +65,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺中市清水區銀聯段00000603地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺中市沙鹿區南勢坑段南勢坑小段04880006地號</t>
@@ -170,7 +173,7 @@
     <t>臺中市南屯區春安段08040001地號</t>
   </si>
   <si>
-    <t>臺中市沙鹿區鹿寮段02620013</t>
+    <t>臺中市沙鹿區鹿寮段02620013地號</t>
   </si>
   <si>
     <t>臺中市沙鹿區鹿寮段02620161地號</t>
@@ -248,18 +251,18 @@
     <t>臺中市沙鹿區南勢坑段埔子小段01970014地號</t>
   </si>
   <si>
+    <t>36分之3</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>48分之11</t>
+  </si>
+  <si>
     <t>2分之1</t>
   </si>
   <si>
-    <t>36分之3</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>48分之11</t>
-  </si>
-  <si>
     <t>37644分之4765</t>
   </si>
   <si>
@@ -281,7 +284,7 @@
     <t>720396分之8750</t>
   </si>
   <si>
-    <t>12820分之</t>
+    <t>12820分之734</t>
   </si>
   <si>
     <t>5分之4</t>
@@ -317,9 +320,6 @@
     <t>陳麗凌</t>
   </si>
   <si>
-    <t>101年03月16曰</t>
-  </si>
-  <si>
     <t>96年10月26日</t>
   </si>
   <si>
@@ -374,7 +374,7 @@
     <t>99年09月13曰</t>
   </si>
   <si>
-    <t>95年10月</t>
+    <t>95年10月25日</t>
   </si>
   <si>
     <t>91年07月02日</t>
@@ -428,18 +428,18 @@
     <t>95年12月25日</t>
   </si>
   <si>
+    <t>拍賣</t>
+  </si>
+  <si>
+    <t>CCX3貝買</t>
+  </si>
+  <si>
+    <t>033=貝買</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
-    <t>拍賣</t>
-  </si>
-  <si>
-    <t>CCX3貝買</t>
-  </si>
-  <si>
-    <t>033=貝買</t>
-  </si>
-  <si>
     <t>cra=貝貫</t>
   </si>
   <si>
@@ -506,27 +506,6 @@
     <t>tmpbf3f1</t>
   </si>
   <si>
-    <t>建物標.示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得)時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
     <t>臺中市西屯區惠來里惠文三街</t>
   </si>
   <si>
@@ -557,9 +536,6 @@
     <t>100年11月24日</t>
   </si>
   <si>
-    <t>95年10月25日</t>
-  </si>
-  <si>
     <t>97年02月13曰</t>
   </si>
   <si>
@@ -584,30 +560,18 @@
     <t>買賣.</t>
   </si>
   <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
     <t>NISSAN</t>
   </si>
   <si>
+    <t>101年08月07日</t>
+  </si>
+  <si>
     <t>BMW</t>
   </si>
   <si>
     <t>LEXUS</t>
   </si>
   <si>
-    <t>101年08月07日</t>
-  </si>
-  <si>
     <t>95年01月01日</t>
   </si>
   <si>
@@ -620,24 +584,15 @@
     <t>買賣』</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>台中商業銀行i少鹿分行</t>
   </si>
   <si>
+    <t>活期儲蓄存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>臺灣土地銀行沙鹿分行</t>
   </si>
   <si>
@@ -665,9 +620,6 @@
     <t>花旗（台灣)商業銀行文心分行</t>
   </si>
   <si>
-    <t>活期儲蓄存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
@@ -680,9 +632,6 @@
     <t>外匯存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -710,12 +659,6 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>新光合成纖維股份有限公司</t>
-  </si>
-  <si>
     <t>鴻海精密工業股份有限公司</t>
   </si>
   <si>
@@ -740,21 +683,15 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>台灣人壽</t>
   </si>
   <si>
+    <t>台灣人壽新富貴年年變額年金保險</t>
+  </si>
+  <si>
+    <t>保單號碼：0100514993</t>
+  </si>
+  <si>
     <t>富邦人壽</t>
   </si>
   <si>
@@ -776,9 +713,6 @@
     <t>三商美邦人壽</t>
   </si>
   <si>
-    <t>台灣人壽新富貴年年變額年金保險</t>
-  </si>
-  <si>
     <t>台灣人壽舞動人生變額萬能壽險</t>
   </si>
   <si>
@@ -872,9 +806,6 @@
     <t>凍麗凌</t>
   </si>
   <si>
-    <t>保單號碼：0100514993</t>
-  </si>
-  <si>
     <t>保單號碼：0100870◦58</t>
   </si>
   <si>
@@ -923,36 +854,24 @@
     <t>保單號碼：1002927505</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>擔保貸款</t>
   </si>
   <si>
+    <t>顏寬®</t>
+  </si>
+  <si>
+    <t>大肚區農會臺中市大肚區大肚里沙田路2段683號</t>
+  </si>
+  <si>
+    <t>貸款</t>
+  </si>
+  <si>
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>顏寬®</t>
-  </si>
-  <si>
     <t>顏寬恆</t>
   </si>
   <si>
-    <t>大肚區農會臺中市大肚區大肚里沙田路2段683號</t>
-  </si>
-  <si>
     <t>國泰世華商業銀行臺北市信義區松仁路7號1樓</t>
   </si>
   <si>
@@ -971,52 +890,37 @@
     <t>95年12月01日</t>
   </si>
   <si>
-    <t>貸款</t>
-  </si>
-  <si>
     <t>一般房貸一長擔</t>
   </si>
   <si>
     <t>一般房貸一長放</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
     <t>鹿澤國際開發（股）公司</t>
   </si>
   <si>
+    <t>臺中市鹿寮里成功東街93號</t>
+  </si>
+  <si>
+    <t>18000000</t>
+  </si>
+  <si>
+    <t>96年10月11曰</t>
+  </si>
+  <si>
+    <t>公司設立</t>
+  </si>
+  <si>
     <t>僑鴻國際開發（股）公司</t>
   </si>
   <si>
-    <t>臺中市鹿寮里成功東街93號</t>
-  </si>
-  <si>
-    <t>18000000</t>
-  </si>
-  <si>
     <t>25000000</t>
   </si>
   <si>
     <t>5000000</t>
   </si>
   <si>
-    <t>96年10月11曰</t>
-  </si>
-  <si>
     <t>94年10月17日</t>
-  </si>
-  <si>
-    <t>公司設立</t>
   </si>
 </sst>
 </file>
@@ -1375,13 +1279,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1424,31 +1328,37 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>282</v>
+        <v>4292</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H2" s="2">
-        <v>2601788</v>
+      <c r="H2" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>157</v>
@@ -1460,7 +1370,7 @@
         <v>159</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M2" s="2">
         <v>1803</v>
@@ -1469,30 +1379,36 @@
         <v>160</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>357.666666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>4292</v>
+        <v>1463</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>152</v>
@@ -1507,7 +1423,7 @@
         <v>159</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" s="2">
         <v>1803</v>
@@ -1516,27 +1432,33 @@
         <v>160</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>121.916666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1463</v>
+        <v>1319</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>136</v>
@@ -1554,7 +1476,7 @@
         <v>159</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" s="2">
         <v>1803</v>
@@ -1563,30 +1485,36 @@
         <v>160</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>18</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>1319</v>
+        <v>3100</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>152</v>
@@ -1601,7 +1529,7 @@
         <v>159</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2">
         <v>1803</v>
@@ -1610,30 +1538,36 @@
         <v>160</v>
       </c>
       <c r="O5" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>19</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>710.416666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>3100</v>
+        <v>1860</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>152</v>
@@ -1648,7 +1582,7 @@
         <v>159</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6" s="2">
         <v>1803</v>
@@ -1657,30 +1591,36 @@
         <v>160</v>
       </c>
       <c r="O6" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>20</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>426.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>1860</v>
+        <v>2480</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>152</v>
@@ -1695,7 +1635,7 @@
         <v>159</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7" s="2">
         <v>1803</v>
@@ -1704,33 +1644,39 @@
         <v>160</v>
       </c>
       <c r="O7" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>568.333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>2480</v>
+        <v>2281</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>157</v>
@@ -1742,7 +1688,7 @@
         <v>159</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M8" s="2">
         <v>1803</v>
@@ -1751,33 +1697,39 @@
         <v>160</v>
       </c>
       <c r="O8" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1140.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2">
         <v>2281</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>153</v>
+      <c r="H9" s="2">
+        <v>16195100</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>157</v>
@@ -1789,7 +1741,7 @@
         <v>159</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M9" s="2">
         <v>1803</v>
@@ -1798,33 +1750,39 @@
         <v>160</v>
       </c>
       <c r="O9" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>2281</v>
+        <v>1340</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H10" s="2">
-        <v>16195100</v>
+      <c r="H10" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>157</v>
@@ -1836,7 +1794,7 @@
         <v>159</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M10" s="2">
         <v>1803</v>
@@ -1845,30 +1803,36 @@
         <v>160</v>
       </c>
       <c r="O10" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>24</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>111.666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>1340</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>152</v>
@@ -1883,7 +1847,7 @@
         <v>159</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M11" s="2">
         <v>1803</v>
@@ -1892,30 +1856,36 @@
         <v>160</v>
       </c>
       <c r="O11" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>152</v>
@@ -1930,7 +1900,7 @@
         <v>159</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M12" s="2">
         <v>1803</v>
@@ -1939,30 +1909,36 @@
         <v>160</v>
       </c>
       <c r="O12" s="2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>6.66666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>152</v>
@@ -1977,7 +1953,7 @@
         <v>159</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M13" s="2">
         <v>1803</v>
@@ -1986,30 +1962,36 @@
         <v>160</v>
       </c>
       <c r="O13" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>27</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>152</v>
@@ -2024,7 +2006,7 @@
         <v>159</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M14" s="2">
         <v>1803</v>
@@ -2033,30 +2015,36 @@
         <v>160</v>
       </c>
       <c r="O14" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>28</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>7.41666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>89</v>
+        <v>713</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>152</v>
@@ -2071,7 +2059,7 @@
         <v>159</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M15" s="2">
         <v>1803</v>
@@ -2080,30 +2068,36 @@
         <v>160</v>
       </c>
       <c r="O15" s="2">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>59.4166666666667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
+        <v>31</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" s="2">
-        <v>713</v>
+        <v>525</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>152</v>
@@ -2118,7 +2112,7 @@
         <v>159</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="2">
         <v>1803</v>
@@ -2127,30 +2121,36 @@
         <v>160</v>
       </c>
       <c r="O16" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>43.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C17" s="2">
-        <v>525</v>
+        <v>618</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>152</v>
@@ -2165,7 +2165,7 @@
         <v>159</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M17" s="2">
         <v>1803</v>
@@ -2174,33 +2174,39 @@
         <v>160</v>
       </c>
       <c r="O17" s="2">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" s="2">
-        <v>618</v>
+        <v>9396</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2140812</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>157</v>
@@ -2212,7 +2218,7 @@
         <v>159</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M18" s="2">
         <v>1803</v>
@@ -2221,33 +2227,39 @@
         <v>160</v>
       </c>
       <c r="O18" s="2">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.12658059717352</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1189.3512910424</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" s="2">
-        <v>9396</v>
+        <v>110</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="2">
-        <v>2140812</v>
+        <v>135</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>157</v>
@@ -2259,7 +2271,7 @@
         <v>159</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M19" s="2">
         <v>1803</v>
@@ -2268,30 +2280,36 @@
         <v>160</v>
       </c>
       <c r="O19" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0.260826210826211</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>28.6908831908832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" s="2">
-        <v>110</v>
+        <v>576</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>152</v>
@@ -2306,7 +2324,7 @@
         <v>159</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M20" s="2">
         <v>1803</v>
@@ -2315,33 +2333,39 @@
         <v>160</v>
       </c>
       <c r="O20" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>35</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0.260826210826211</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>150.235897435897</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="2">
-        <v>576</v>
+        <v>731</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
+      </c>
+      <c r="H21" s="2">
+        <v>995726</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>157</v>
@@ -2353,7 +2377,7 @@
         <v>159</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M21" s="2">
         <v>1803</v>
@@ -2362,33 +2386,39 @@
         <v>160</v>
       </c>
       <c r="O21" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>36</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.293429487179487</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>214.496955128205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
+        <v>37</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C22" s="2">
-        <v>731</v>
+        <v>191</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H22" s="2">
-        <v>995726</v>
+        <v>113887</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>157</v>
@@ -2400,7 +2430,7 @@
         <v>159</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M22" s="2">
         <v>1803</v>
@@ -2409,33 +2439,39 @@
         <v>160</v>
       </c>
       <c r="O22" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>19.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
+        <v>38</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" s="2">
-        <v>191</v>
+        <v>4911.55</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H23" s="2">
-        <v>113887</v>
+        <v>141</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>157</v>
@@ -2447,7 +2483,7 @@
         <v>159</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M23" s="2">
         <v>1803</v>
@@ -2456,24 +2492,30 @@
         <v>160</v>
       </c>
       <c r="O23" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>38</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0.100701754385965</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>494.601701754386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C24" s="2">
-        <v>4911.55</v>
+        <v>1195.92</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>111</v>
@@ -2494,7 +2536,7 @@
         <v>159</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M24" s="2">
         <v>1803</v>
@@ -2503,33 +2545,39 @@
         <v>160</v>
       </c>
       <c r="O24" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>39</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0.100701754385965</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>120.431242105263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
+        <v>40</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C25" s="2">
-        <v>1195.92</v>
+        <v>3321</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
+      </c>
+      <c r="H25" s="2">
+        <v>3985200</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>157</v>
@@ -2541,7 +2589,7 @@
         <v>159</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" s="2">
         <v>1803</v>
@@ -2550,33 +2598,39 @@
         <v>160</v>
       </c>
       <c r="O25" s="2">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>40</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C26" s="2">
-        <v>3321</v>
+        <v>527.79</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H26" s="2">
-        <v>3985200</v>
+        <v>31561842</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>157</v>
@@ -2588,7 +2642,7 @@
         <v>159</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M26" s="2">
         <v>1803</v>
@@ -2597,33 +2651,39 @@
         <v>160</v>
       </c>
       <c r="O26" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="P26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>527.79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1">
+        <v>42</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C27" s="2">
-        <v>527.79</v>
+        <v>792.23</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H27" s="2">
-        <v>31561842</v>
+        <v>138</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>157</v>
@@ -2635,7 +2695,7 @@
         <v>159</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M27" s="2">
         <v>1803</v>
@@ -2644,30 +2704,36 @@
         <v>160</v>
       </c>
       <c r="O27" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>42</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.059</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>46.74157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="C28" s="2">
-        <v>792.23</v>
+        <v>91.89</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>114</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>152</v>
@@ -2682,7 +2748,7 @@
         <v>159</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M28" s="2">
         <v>1803</v>
@@ -2691,33 +2757,39 @@
         <v>160</v>
       </c>
       <c r="O28" s="2">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>45.945</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1">
+        <v>44</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C29" s="2">
-        <v>91.89</v>
+        <v>10567</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2951820</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>157</v>
@@ -2729,7 +2801,7 @@
         <v>159</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M29" s="2">
         <v>1803</v>
@@ -2738,33 +2810,39 @@
         <v>160</v>
       </c>
       <c r="O29" s="2">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>44</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.0121460974241945</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>128.347811481463</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1">
+        <v>45</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C30" s="2">
-        <v>10567</v>
+        <v>95</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>115</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2951820</v>
+        <v>143</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>157</v>
@@ -2776,7 +2854,7 @@
         <v>159</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M30" s="2">
         <v>1803</v>
@@ -2785,33 +2863,39 @@
         <v>160</v>
       </c>
       <c r="O30" s="2">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>45</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.0121460974241945</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>1.15387925529847</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1">
+        <v>46</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="C31" s="2">
-        <v>95</v>
+        <v>895</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>157</v>
@@ -2823,7 +2907,7 @@
         <v>159</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M31" s="2">
         <v>1803</v>
@@ -2832,33 +2916,39 @@
         <v>160</v>
       </c>
       <c r="O31" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>46</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.0121460974241945</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>10.8707571946541</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1">
+        <v>47</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C32" s="2">
-        <v>895</v>
+        <v>5570</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
+      </c>
+      <c r="H32" s="2">
+        <v>446226</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>157</v>
@@ -2870,7 +2960,7 @@
         <v>159</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M32" s="2">
         <v>1803</v>
@@ -2879,33 +2969,39 @@
         <v>160</v>
       </c>
       <c r="O32" s="2">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>47</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.0121460974241945</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>67.6537626527632</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1">
+        <v>48</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C33" s="2">
-        <v>5570</v>
+        <v>1079</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H33" s="2">
-        <v>446226</v>
+        <v>86394</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>157</v>
@@ -2917,7 +3013,7 @@
         <v>159</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M33" s="2">
         <v>1803</v>
@@ -2926,33 +3022,39 @@
         <v>160</v>
       </c>
       <c r="O33" s="2">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>48</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.0121460974241945</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>13.1056391207058</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1">
+        <v>49</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C34" s="2">
-        <v>1079</v>
+        <v>264</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H34" s="2">
-        <v>86394</v>
+        <v>146</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>157</v>
@@ -2964,7 +3066,7 @@
         <v>159</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M34" s="2">
         <v>1803</v>
@@ -2973,33 +3075,39 @@
         <v>160</v>
       </c>
       <c r="O34" s="2">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>49</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.0121460974241945</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>3.20656971998734</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
       <c r="A35" s="1">
+        <v>50</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C35" s="2">
-        <v>264</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>116</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>156</v>
+        <v>138</v>
+      </c>
+      <c r="H35" s="2">
+        <v>66</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>157</v>
@@ -3011,7 +3119,7 @@
         <v>159</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M35" s="2">
         <v>1803</v>
@@ -3020,33 +3128,39 @@
         <v>160</v>
       </c>
       <c r="O35" s="2">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>50</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0.0121460974241945</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0.0121460974241945</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
       <c r="A36" s="1">
+        <v>51</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C36" s="2">
-        <v>1</v>
+        <v>641</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H36" s="2">
-        <v>66</v>
+        <v>138</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>157</v>
@@ -3058,7 +3172,7 @@
         <v>159</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M36" s="2">
         <v>1803</v>
@@ -3067,27 +3181,33 @@
         <v>160</v>
       </c>
       <c r="O36" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>51</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0.0572542901716069</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>36.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
       <c r="A37" s="1">
+        <v>52</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C37" s="2">
-        <v>641</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>135</v>
@@ -3105,7 +3225,7 @@
         <v>159</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M37" s="2">
         <v>1803</v>
@@ -3114,30 +3234,36 @@
         <v>160</v>
       </c>
       <c r="O37" s="2">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>52</v>
+      </c>
+      <c r="P37" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C38" s="2">
-        <v>81</v>
+        <v>144</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>152</v>
@@ -3152,7 +3278,7 @@
         <v>159</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M38" s="2">
         <v>1803</v>
@@ -3161,30 +3287,36 @@
         <v>160</v>
       </c>
       <c r="O38" s="2">
+        <v>53</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
-      <c r="A39" s="1">
-        <v>55</v>
-      </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C39" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>152</v>
@@ -3199,7 +3331,7 @@
         <v>159</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M39" s="2">
         <v>1803</v>
@@ -3208,30 +3340,36 @@
         <v>160</v>
       </c>
       <c r="O39" s="2">
+        <v>54</v>
+      </c>
+      <c r="P39" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="1">
-        <v>56</v>
-      </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>152</v>
@@ -3246,7 +3384,7 @@
         <v>159</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M40" s="2">
         <v>1803</v>
@@ -3255,30 +3393,36 @@
         <v>160</v>
       </c>
       <c r="O40" s="2">
+        <v>55</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1">
         <v>56</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="1">
-        <v>57</v>
-      </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C41" s="2">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>152</v>
@@ -3293,7 +3437,7 @@
         <v>159</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M41" s="2">
         <v>1803</v>
@@ -3302,30 +3446,36 @@
         <v>160</v>
       </c>
       <c r="O41" s="2">
+        <v>56</v>
+      </c>
+      <c r="P41" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1">
         <v>57</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="1">
-        <v>58</v>
-      </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2">
-        <v>32</v>
+        <v>259</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>152</v>
@@ -3340,7 +3490,7 @@
         <v>159</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M42" s="2">
         <v>1803</v>
@@ -3349,33 +3499,39 @@
         <v>160</v>
       </c>
       <c r="O42" s="2">
+        <v>57</v>
+      </c>
+      <c r="P42" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="1">
-        <v>59</v>
-      </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C43" s="2">
-        <v>259</v>
+        <v>463</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
+      </c>
+      <c r="H43" s="2">
+        <v>567341</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>157</v>
@@ -3387,7 +3543,7 @@
         <v>159</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M43" s="2">
         <v>1803</v>
@@ -3396,33 +3552,39 @@
         <v>160</v>
       </c>
       <c r="O43" s="2">
+        <v>58</v>
+      </c>
+      <c r="P43" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="1">
-        <v>60</v>
-      </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C44" s="2">
-        <v>463</v>
+        <v>495</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="H44" s="2">
-        <v>567341</v>
+        <v>3880800</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>157</v>
@@ -3434,7 +3596,7 @@
         <v>159</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M44" s="2">
         <v>1803</v>
@@ -3443,33 +3605,39 @@
         <v>160</v>
       </c>
       <c r="O44" s="2">
+        <v>59</v>
+      </c>
+      <c r="P44" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="1">
-        <v>61</v>
-      </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C45" s="2">
-        <v>495</v>
+        <v>1376</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H45" s="2">
-        <v>3880800</v>
+        <v>12934400</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>157</v>
@@ -3481,7 +3649,7 @@
         <v>159</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M45" s="2">
         <v>1803</v>
@@ -3490,33 +3658,39 @@
         <v>160</v>
       </c>
       <c r="O45" s="2">
+        <v>60</v>
+      </c>
+      <c r="P45" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1">
         <v>61</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="1">
-        <v>62</v>
-      </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C46" s="2">
-        <v>1376</v>
+        <v>265</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H46" s="2">
-        <v>12934400</v>
+        <v>156768</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>157</v>
@@ -3528,7 +3702,7 @@
         <v>159</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M46" s="2">
         <v>1803</v>
@@ -3537,33 +3711,39 @@
         <v>160</v>
       </c>
       <c r="O46" s="2">
+        <v>61</v>
+      </c>
+      <c r="P46" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>22.0833333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1">
         <v>62</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="1">
-        <v>63</v>
-      </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C47" s="2">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H47" s="2">
-        <v>156768</v>
+        <v>150</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>157</v>
@@ -3575,7 +3755,7 @@
         <v>159</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M47" s="2">
         <v>1803</v>
@@ -3584,33 +3764,39 @@
         <v>160</v>
       </c>
       <c r="O47" s="2">
+        <v>62</v>
+      </c>
+      <c r="P47" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1">
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="1">
-        <v>64</v>
-      </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+      <c r="H48" s="2">
+        <v>31311</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>157</v>
@@ -3622,7 +3808,7 @@
         <v>159</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M48" s="2">
         <v>1803</v>
@@ -3631,33 +3817,39 @@
         <v>160</v>
       </c>
       <c r="O48" s="2">
+        <v>63</v>
+      </c>
+      <c r="P48" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>4.41666666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1">
         <v>64</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
-      <c r="A49" s="1">
-        <v>65</v>
-      </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2">
-        <v>53</v>
+        <v>805</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>127</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H49" s="2">
-        <v>31311</v>
+        <v>756267</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>157</v>
@@ -3669,7 +3861,7 @@
         <v>159</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M49" s="2">
         <v>1803</v>
@@ -3678,33 +3870,39 @@
         <v>160</v>
       </c>
       <c r="O49" s="2">
+        <v>64</v>
+      </c>
+      <c r="P49" s="2">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>134.166666666667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1">
         <v>65</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
-      <c r="A50" s="1">
-        <v>66</v>
-      </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2">
-        <v>805</v>
+        <v>73</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>127</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H50" s="2">
-        <v>756267</v>
+        <v>431680</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>157</v>
@@ -3716,7 +3914,7 @@
         <v>159</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M50" s="2">
         <v>1803</v>
@@ -3725,33 +3923,39 @@
         <v>160</v>
       </c>
       <c r="O50" s="2">
+        <v>65</v>
+      </c>
+      <c r="P50" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>6.08333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
-      <c r="A51" s="1">
-        <v>67</v>
-      </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C51" s="2">
-        <v>73</v>
+        <v>3084</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="H51" s="2">
-        <v>431680</v>
+      <c r="H51" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>157</v>
@@ -3763,7 +3967,7 @@
         <v>159</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M51" s="2">
         <v>1803</v>
@@ -3772,30 +3976,36 @@
         <v>160</v>
       </c>
       <c r="O51" s="2">
+        <v>66</v>
+      </c>
+      <c r="P51" s="2">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>706.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
-      <c r="A52" s="1">
-        <v>68</v>
-      </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C52" s="2">
-        <v>3084</v>
+        <v>975</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>152</v>
@@ -3810,7 +4020,7 @@
         <v>159</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M52" s="2">
         <v>1803</v>
@@ -3819,30 +4029,36 @@
         <v>160</v>
       </c>
       <c r="O52" s="2">
+        <v>67</v>
+      </c>
+      <c r="P52" s="2">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>203.125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" s="1">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
-      <c r="A53" s="1">
-        <v>69</v>
-      </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C53" s="2">
-        <v>975</v>
+        <v>440</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>152</v>
@@ -3857,7 +4073,7 @@
         <v>159</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M53" s="2">
         <v>1803</v>
@@ -3866,30 +4082,36 @@
         <v>160</v>
       </c>
       <c r="O53" s="2">
+        <v>68</v>
+      </c>
+      <c r="P53" s="2">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>91.6666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" s="1">
         <v>69</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
-      <c r="A54" s="1">
-        <v>70</v>
-      </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C54" s="2">
-        <v>440</v>
+        <v>1254</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>152</v>
@@ -3904,7 +4126,7 @@
         <v>159</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M54" s="2">
         <v>1803</v>
@@ -3913,30 +4135,36 @@
         <v>160</v>
       </c>
       <c r="O54" s="2">
+        <v>69</v>
+      </c>
+      <c r="P54" s="2">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>52.25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" s="1">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
-      <c r="A55" s="1">
-        <v>71</v>
-      </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C55" s="2">
-        <v>1254</v>
+        <v>2283</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>99</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>152</v>
@@ -3951,7 +4179,7 @@
         <v>159</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M55" s="2">
         <v>1803</v>
@@ -3960,30 +4188,36 @@
         <v>160</v>
       </c>
       <c r="O55" s="2">
+        <v>70</v>
+      </c>
+      <c r="P55" s="2">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>951.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1">
         <v>71</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
-      <c r="A56" s="1">
-        <v>72</v>
-      </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C56" s="2">
-        <v>2283</v>
+        <v>137</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>152</v>
@@ -3998,7 +4232,7 @@
         <v>159</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M56" s="2">
         <v>1803</v>
@@ -4007,30 +4241,36 @@
         <v>160</v>
       </c>
       <c r="O56" s="2">
+        <v>71</v>
+      </c>
+      <c r="P56" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1">
         <v>72</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
-      <c r="A57" s="1">
-        <v>73</v>
-      </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C57" s="2">
-        <v>137</v>
+        <v>437</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>129</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>152</v>
@@ -4045,7 +4285,7 @@
         <v>159</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M57" s="2">
         <v>1803</v>
@@ -4054,33 +4294,39 @@
         <v>160</v>
       </c>
       <c r="O57" s="2">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>72</v>
+      </c>
+      <c r="P57" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
       <c r="A58" s="1">
         <v>74</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C58" s="2">
-        <v>437</v>
+        <v>361</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
+      </c>
+      <c r="H58" s="2">
+        <v>295996</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>157</v>
@@ -4092,7 +4338,7 @@
         <v>159</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M58" s="2">
         <v>1803</v>
@@ -4103,31 +4349,37 @@
       <c r="O58" s="2">
         <v>74</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="P58" s="2">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>30.0833333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2">
-        <v>361</v>
+        <v>1040</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H59" s="2">
-        <v>295996</v>
+        <v>150</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>157</v>
@@ -4139,7 +4391,7 @@
         <v>159</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M59" s="2">
         <v>1803</v>
@@ -4148,27 +4400,33 @@
         <v>160</v>
       </c>
       <c r="O59" s="2">
+        <v>75</v>
+      </c>
+      <c r="P59" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="1">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
-      <c r="A60" s="1">
-        <v>77</v>
-      </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2">
-        <v>1040</v>
+        <v>792.23</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>150</v>
@@ -4186,7 +4444,7 @@
         <v>159</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M60" s="2">
         <v>1803</v>
@@ -4195,30 +4453,36 @@
         <v>160</v>
       </c>
       <c r="O60" s="2">
+        <v>76</v>
+      </c>
+      <c r="P60" s="2">
+        <v>0.059</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>46.74157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
-      <c r="A61" s="1">
-        <v>78</v>
-      </c>
       <c r="B61" s="2" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C61" s="2">
-        <v>792.23</v>
+        <v>106</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>152</v>
@@ -4233,7 +4497,7 @@
         <v>159</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M61" s="2">
         <v>1803</v>
@@ -4242,30 +4506,36 @@
         <v>160</v>
       </c>
       <c r="O61" s="2">
+        <v>77</v>
+      </c>
+      <c r="P61" s="2">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>35.3333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="1">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" spans="1:15">
-      <c r="A62" s="1">
-        <v>79</v>
-      </c>
       <c r="B62" s="2" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>152</v>
@@ -4280,7 +4550,7 @@
         <v>159</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M62" s="2">
         <v>1803</v>
@@ -4289,24 +4559,30 @@
         <v>160</v>
       </c>
       <c r="O62" s="2">
+        <v>78</v>
+      </c>
+      <c r="P62" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="63" spans="1:15">
-      <c r="A63" s="1">
-        <v>80</v>
-      </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>133</v>
@@ -4327,39 +4603,45 @@
         <v>159</v>
       </c>
       <c r="L63" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M63" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O63" s="2">
+        <v>79</v>
+      </c>
+      <c r="P63" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1">
+        <v>80</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="2">
+        <v>3084</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M63" s="2">
-        <v>1803</v>
-      </c>
-      <c r="N63" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O63" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15">
-      <c r="A64" s="1">
-        <v>81</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="2">
-        <v>61</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E64" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>152</v>
@@ -4374,39 +4656,45 @@
         <v>159</v>
       </c>
       <c r="L64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M64" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O64" s="2">
+        <v>80</v>
+      </c>
+      <c r="P64" s="2">
+        <v>0.180555555555556</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>556.833333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1">
+        <v>81</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="2">
+        <v>975</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M64" s="2">
-        <v>1803</v>
-      </c>
-      <c r="N64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O64" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
-      <c r="A65" s="1">
-        <v>82</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C65" s="2">
-        <v>3084</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>152</v>
@@ -4421,39 +4709,45 @@
         <v>159</v>
       </c>
       <c r="L65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M65" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O65" s="2">
+        <v>81</v>
+      </c>
+      <c r="P65" s="2">
+        <v>0.180555555555556</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>176.041666666667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1">
+        <v>82</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" s="2">
+        <v>440</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M65" s="2">
-        <v>1803</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O65" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
-      <c r="A66" s="1">
-        <v>83</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="2">
-        <v>975</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>152</v>
@@ -4468,7 +4762,7 @@
         <v>159</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M66" s="2">
         <v>1803</v>
@@ -4477,30 +4771,36 @@
         <v>160</v>
       </c>
       <c r="O66" s="2">
+        <v>82</v>
+      </c>
+      <c r="P66" s="2">
+        <v>0.180555555555556</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>79.4444444444444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1">
         <v>83</v>
       </c>
-    </row>
-    <row r="67" spans="1:15">
-      <c r="A67" s="1">
-        <v>84</v>
-      </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C67" s="2">
-        <v>440</v>
+        <v>91.89</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>152</v>
@@ -4515,7 +4815,7 @@
         <v>159</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M67" s="2">
         <v>1803</v>
@@ -4524,54 +4824,13 @@
         <v>160</v>
       </c>
       <c r="O67" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15">
-      <c r="A68" s="1">
-        <v>85</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="2">
-        <v>91.89</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L68" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="M68" s="2">
-        <v>1803</v>
-      </c>
-      <c r="N68" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O68" s="2">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>45.945</v>
       </c>
     </row>
   </sheetData>
@@ -4581,7 +4840,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4591,98 +4850,98 @@
       <c r="B1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>162</v>
+      <c r="C1" s="1">
+        <v>467.5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>164</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2">
-        <v>467.5</v>
+        <v>774.2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1931500</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2">
-        <v>774.2</v>
+        <v>302.6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1931500</v>
+        <v>175</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2">
-        <v>302.6</v>
+        <v>345.2</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>152</v>
@@ -4690,25 +4949,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2">
-        <v>345.2</v>
+        <v>230.1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>152</v>
@@ -4716,25 +4975,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2">
-        <v>230.1</v>
+        <v>260.2</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>184</v>
+        <v>138</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>152</v>
@@ -4742,25 +5001,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C7" s="2">
-        <v>260.2</v>
+        <v>39.4</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>152</v>
@@ -4768,25 +5027,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2">
-        <v>39.4</v>
+        <v>491</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>152</v>
@@ -4794,25 +5053,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C9" s="2">
-        <v>491</v>
+        <v>357.6</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>152</v>
@@ -4820,25 +5079,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
+        <v>97</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="2">
+        <v>467.5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C10" s="2">
-        <v>357.6</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>152</v>
@@ -4846,25 +5105,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2">
-        <v>467.5</v>
+        <v>456</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>185</v>
+        <v>138</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>152</v>
@@ -4872,25 +5131,25 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2">
-        <v>456</v>
+        <v>314.9</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>152</v>
@@ -4898,53 +5157,27 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2">
-        <v>314.9</v>
+        <v>140.9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>104</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="2">
-        <v>140.9</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H14" s="2" t="s">
         <v>152</v>
       </c>
     </row>
@@ -4954,6 +5187,1566 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3799</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1170</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5972</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>115</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3456</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>2884470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>130</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>75589</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>131</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>132</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>852982</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>133</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>134</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2">
+        <v>1256760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>136</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="2">
+        <v>35712</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1053504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>137</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2">
+        <v>1955524</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>138</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2">
+        <v>87695</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2587002.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>139</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2">
+        <v>47772</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>140</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>141</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>2404176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>142</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>1072010</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>143</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>144</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>2403193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>145</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>52000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>146</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>18925634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>147</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>58585433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>148</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>55414777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>149</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>21903642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>150</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="2">
+        <v>26565</v>
+      </c>
+      <c r="G21" s="2">
+        <v>783667.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>151</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>152</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>16125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>153</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>1256760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>154</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>35712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>162</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="2">
+        <v>30022</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="2">
+        <v>300220</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N2" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>163</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N3" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>164</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="2">
+        <v>102007</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1020070</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N4" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>166</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G5" s="2">
+        <v>70000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N5" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>167</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="2">
+        <v>119536</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1195360</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N6" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>168</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="2">
+        <v>174641</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N7" s="2">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>192</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>193</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>194</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>195</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>196</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>197</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>198</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>199</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>201</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>202</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>203</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>204</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>205</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>206</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>207</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>208</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>209</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>210</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>211</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>212</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>213</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>214</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>215</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>216</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>217</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>218</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>219</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>220</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>221</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>222</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>223</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>224</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>225</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>227</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>228</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>229</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -4963,114 +6756,114 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>187</v>
+        <v>277</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>188</v>
+        <v>278</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>190</v>
+        <v>279</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1700000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>125</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>114</v>
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3799</v>
+        <v>277</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>96</v>
+        <v>279</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1700000</v>
+        <v>286</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1170</v>
+        <v>281</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>195</v>
+        <v>283</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2940000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>152</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5972</v>
+        <v>281</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>282</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>196</v>
+        <v>284</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4483703</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>152</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>117</v>
+        <v>243</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3456</v>
+        <v>281</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>197</v>
+        <v>283</v>
+      </c>
+      <c r="E5" s="2">
+        <v>399935</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1400000</v>
+        <v>287</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5078,9 +6871,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5088,1781 +6881,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>200</v>
+        <v>291</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>201</v>
+        <v>292</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>189</v>
+        <v>293</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>202</v>
+        <v>294</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>203</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>204</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>2884470</v>
+        <v>297</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>132</v>
+        <v>250</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>205</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>214</v>
+        <v>296</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>75589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>133</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>134</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
-        <v>852982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>136</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
-        <v>1256760</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>138</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="2">
-        <v>35712</v>
-      </c>
-      <c r="G8" s="2">
-        <v>1053504</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>139</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>1955524</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>140</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="2">
-        <v>87695</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2587002.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>141</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>47772</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>142</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>1900000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>143</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>2404176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>144</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>1072010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>145</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>146</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>2403193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>147</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>52000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>148</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>18925634</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>149</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>58585433</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>150</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>55414777</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>151</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
-        <v>21903642</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>152</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="2">
-        <v>26565</v>
-      </c>
-      <c r="G22" s="2">
-        <v>783667.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>153</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>154</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>16125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>155</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>1256760</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1">
-        <v>156</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
-        <v>35712</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>163</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D2" s="2">
-        <v>110398</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1103980</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N2" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>164</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="2">
-        <v>30022</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
+        <v>298</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G3" s="2">
-        <v>300220</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>165</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N4" s="2">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>166</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="2">
-        <v>102007</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1020070</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N5" s="2">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>168</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" s="2">
-        <v>70000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N6" s="2">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>169</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D7" s="2">
-        <v>119536</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1195360</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N7" s="2">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>170</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D8" s="2">
-        <v>174641</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N8" s="2">
-        <v>170</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>193</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>194</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>195</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>196</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>197</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>198</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>199</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>200</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>201</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>203</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>204</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>205</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>206</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>207</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>208</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>209</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>210</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>211</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>212</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>213</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>214</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>215</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>216</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>217</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>218</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>219</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>220</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>221</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>222</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>223</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>224</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>225</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>226</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>227</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>229</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>230</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>231</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>241</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1700000</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>242</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>243</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2940000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>244</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4483703</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>245</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E6" s="2">
-        <v>399935</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>250</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>251</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>252</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
+++ b/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="303">
   <si>
     <t>name</t>
   </si>
@@ -71,6 +71,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺中市清水區銀聯段00000603地號</t>
+  </si>
+  <si>
     <t>臺中市沙鹿區南勢坑段南勢坑小段04880006地號</t>
   </si>
   <si>
@@ -251,6 +254,9 @@
     <t>臺中市沙鹿區南勢坑段埔子小段01970014地號</t>
   </si>
   <si>
+    <t>2分之1</t>
+  </si>
+  <si>
     <t>36分之3</t>
   </si>
   <si>
@@ -260,9 +266,6 @@
     <t>48分之11</t>
   </si>
   <si>
-    <t>2分之1</t>
-  </si>
-  <si>
     <t>37644分之4765</t>
   </si>
   <si>
@@ -320,6 +323,9 @@
     <t>陳麗凌</t>
   </si>
   <si>
+    <t>101年03月16曰</t>
+  </si>
+  <si>
     <t>96年10月26日</t>
   </si>
   <si>
@@ -428,6 +434,9 @@
     <t>95年12月25日</t>
   </si>
   <si>
+    <t>買賣</t>
+  </si>
+  <si>
     <t>拍賣</t>
   </si>
   <si>
@@ -437,9 +446,6 @@
     <t>033=貝買</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
     <t>cra=貝貫</t>
   </si>
   <si>
@@ -657,6 +663,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>新光合成纖維股份有限公司</t>
   </si>
   <si>
     <t>鴻海精密工業股份有限公司</t>
@@ -1279,7 +1288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1337,378 +1346,378 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>4292</v>
+        <v>282</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2601788</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M2" s="2">
         <v>1803</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0833333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="Q2" s="2">
-        <v>357.666666666667</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1463</v>
+        <v>4292</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M3" s="2">
         <v>1803</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q3" s="2">
-        <v>121.916666666667</v>
+        <v>357.666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>1319</v>
+        <v>1463</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" s="2">
         <v>1803</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="2">
-        <v>1319</v>
+        <v>121.916666666667</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>3100</v>
+        <v>1319</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" s="2">
         <v>1803</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O5" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P5" s="2">
-        <v>0.229166666666667</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="2">
-        <v>710.416666666667</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="2">
-        <v>1860</v>
+        <v>3100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M6" s="2">
         <v>1803</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O6" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P6" s="2">
         <v>0.229166666666667</v>
       </c>
       <c r="Q6" s="2">
-        <v>426.25</v>
+        <v>710.416666666667</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="2">
-        <v>2480</v>
+        <v>1860</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7" s="2">
         <v>1803</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O7" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P7" s="2">
         <v>0.229166666666667</v>
       </c>
       <c r="Q7" s="2">
-        <v>568.333333333333</v>
+        <v>426.25</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="2">
-        <v>2281</v>
+        <v>2480</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" s="2">
         <v>1803</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O8" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P8" s="2">
-        <v>0.5</v>
+        <v>0.229166666666667</v>
       </c>
       <c r="Q8" s="2">
-        <v>1140.5</v>
+        <v>568.333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>23</v>
@@ -1720,3116 +1729,3169 @@
         <v>77</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="2">
-        <v>16195100</v>
+        <v>140</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" s="2">
         <v>1803</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O9" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P9" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q9" s="2">
-        <v>2281</v>
+        <v>1140.5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="2">
-        <v>1340</v>
+        <v>2281</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="H10" s="2">
+        <v>16195100</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M10" s="2">
         <v>1803</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O10" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" s="2">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="2">
-        <v>111.666666666667</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>69</v>
+        <v>1340</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M11" s="2">
         <v>1803</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O11" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P11" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q11" s="2">
-        <v>5.75</v>
+        <v>111.666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M12" s="2">
         <v>1803</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O12" s="2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P12" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q12" s="2">
-        <v>6.66666666666667</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13" s="2">
         <v>1803</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P13" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q13" s="2">
-        <v>2.5</v>
+        <v>6.66666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="2">
         <v>1803</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O14" s="2">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P14" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q14" s="2">
-        <v>7.41666666666667</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="2">
-        <v>713</v>
+        <v>89</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" s="2">
         <v>1803</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O15" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P15" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q15" s="2">
-        <v>59.4166666666667</v>
+        <v>7.41666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C16" s="2">
-        <v>525</v>
+        <v>713</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M16" s="2">
         <v>1803</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O16" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P16" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q16" s="2">
-        <v>43.75</v>
+        <v>59.4166666666667</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C17" s="2">
-        <v>618</v>
+        <v>525</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M17" s="2">
         <v>1803</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O17" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="2">
         <v>0.0833333333333333</v>
       </c>
       <c r="Q17" s="2">
-        <v>51.5</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="2">
-        <v>9396</v>
+        <v>618</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2140812</v>
+        <v>138</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M18" s="2">
         <v>1803</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O18" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P18" s="2">
-        <v>0.12658059717352</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q18" s="2">
-        <v>1189.3512910424</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="2">
-        <v>110</v>
+        <v>9396</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2140812</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M19" s="2">
         <v>1803</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O19" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2">
-        <v>0.260826210826211</v>
+        <v>0.12658059717352</v>
       </c>
       <c r="Q19" s="2">
-        <v>28.6908831908832</v>
+        <v>1189.3512910424</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="2">
-        <v>576</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M20" s="2">
         <v>1803</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O20" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P20" s="2">
         <v>0.260826210826211</v>
       </c>
       <c r="Q20" s="2">
-        <v>150.235897435897</v>
+        <v>28.6908831908832</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="2">
-        <v>731</v>
+        <v>576</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>82</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="2">
-        <v>995726</v>
+        <v>138</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M21" s="2">
         <v>1803</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O21" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P21" s="2">
-        <v>0.293429487179487</v>
+        <v>0.260826210826211</v>
       </c>
       <c r="Q21" s="2">
-        <v>214.496955128205</v>
+        <v>150.235897435897</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="2">
-        <v>191</v>
+        <v>731</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H22" s="2">
-        <v>113887</v>
+        <v>995726</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" s="2">
         <v>1803</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O22" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P22" s="2">
-        <v>0.1</v>
+        <v>0.293429487179487</v>
       </c>
       <c r="Q22" s="2">
-        <v>19.1</v>
+        <v>214.496955128205</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="2">
-        <v>4911.55</v>
+        <v>191</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>84</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>152</v>
+        <v>138</v>
+      </c>
+      <c r="H23" s="2">
+        <v>113887</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M23" s="2">
         <v>1803</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O23" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P23" s="2">
-        <v>0.100701754385965</v>
+        <v>0.1</v>
       </c>
       <c r="Q23" s="2">
-        <v>494.601701754386</v>
+        <v>19.1</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2">
-        <v>1195.92</v>
+        <v>4911.55</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M24" s="2">
         <v>1803</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O24" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P24" s="2">
         <v>0.100701754385965</v>
       </c>
       <c r="Q24" s="2">
-        <v>120.431242105263</v>
+        <v>494.601701754386</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="2">
-        <v>3321</v>
+        <v>1195.92</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="2">
-        <v>3985200</v>
+        <v>143</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M25" s="2">
         <v>1803</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O25" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P25" s="2">
-        <v>1</v>
+        <v>0.100701754385965</v>
       </c>
       <c r="Q25" s="2">
-        <v>3321</v>
+        <v>120.431242105263</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C26" s="2">
-        <v>527.79</v>
+        <v>3321</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H26" s="2">
-        <v>31561842</v>
+        <v>3985200</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M26" s="2">
         <v>1803</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O26" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P26" s="2">
         <v>1</v>
       </c>
       <c r="Q26" s="2">
-        <v>527.79</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="2">
-        <v>792.23</v>
+        <v>527.79</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="H27" s="2">
+        <v>31561842</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M27" s="2">
         <v>1803</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O27" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P27" s="2">
-        <v>0.059</v>
+        <v>1</v>
       </c>
       <c r="Q27" s="2">
-        <v>46.74157</v>
+        <v>527.79</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2">
-        <v>91.89</v>
+        <v>792.23</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M28" s="2">
         <v>1803</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O28" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" s="2">
-        <v>0.5</v>
+        <v>0.059</v>
       </c>
       <c r="Q28" s="2">
-        <v>45.945</v>
+        <v>46.74157</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="2">
-        <v>10567</v>
+        <v>91.89</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H29" s="2">
-        <v>2951820</v>
+        <v>144</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M29" s="2">
         <v>1803</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O29" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P29" s="2">
-        <v>0.0121460974241945</v>
+        <v>0.5</v>
       </c>
       <c r="Q29" s="2">
-        <v>128.347811481463</v>
+        <v>45.945</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="2">
-        <v>95</v>
+        <v>10567</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2951820</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M30" s="2">
         <v>1803</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O30" s="2">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P30" s="2">
         <v>0.0121460974241945</v>
       </c>
       <c r="Q30" s="2">
-        <v>1.15387925529847</v>
+        <v>128.347811481463</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C31" s="2">
-        <v>895</v>
+        <v>95</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M31" s="2">
         <v>1803</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O31" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2">
         <v>0.0121460974241945</v>
       </c>
       <c r="Q31" s="2">
-        <v>10.8707571946541</v>
+        <v>1.15387925529847</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C32" s="2">
-        <v>5570</v>
+        <v>895</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H32" s="2">
-        <v>446226</v>
+        <v>137</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M32" s="2">
         <v>1803</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O32" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P32" s="2">
         <v>0.0121460974241945</v>
       </c>
       <c r="Q32" s="2">
-        <v>67.6537626527632</v>
+        <v>10.8707571946541</v>
       </c>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C33" s="2">
-        <v>1079</v>
+        <v>5570</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H33" s="2">
-        <v>86394</v>
+        <v>446226</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M33" s="2">
         <v>1803</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O33" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P33" s="2">
         <v>0.0121460974241945</v>
       </c>
       <c r="Q33" s="2">
-        <v>13.1056391207058</v>
+        <v>67.6537626527632</v>
       </c>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C34" s="2">
-        <v>264</v>
+        <v>1079</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
+      </c>
+      <c r="H34" s="2">
+        <v>86394</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M34" s="2">
         <v>1803</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O34" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P34" s="2">
         <v>0.0121460974241945</v>
       </c>
       <c r="Q34" s="2">
-        <v>3.20656971998734</v>
+        <v>13.1056391207058</v>
       </c>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>264</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="2">
-        <v>66</v>
+        <v>148</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M35" s="2">
         <v>1803</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O35" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P35" s="2">
         <v>0.0121460974241945</v>
       </c>
       <c r="Q35" s="2">
-        <v>0.0121460974241945</v>
+        <v>3.20656971998734</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C36" s="2">
-        <v>641</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>87</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="H36" s="2">
+        <v>66</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M36" s="2">
         <v>1803</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O36" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P36" s="2">
-        <v>0.0572542901716069</v>
+        <v>0.0121460974241945</v>
       </c>
       <c r="Q36" s="2">
-        <v>36.7</v>
+        <v>0.0121460974241945</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C37" s="2">
-        <v>81</v>
+        <v>641</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M37" s="2">
         <v>1803</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O37" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P37" s="2">
-        <v>1</v>
+        <v>0.0572542901716069</v>
       </c>
       <c r="Q37" s="2">
-        <v>81</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C38" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M38" s="2">
         <v>1803</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O38" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P38" s="2">
         <v>1</v>
       </c>
       <c r="Q38" s="2">
-        <v>144</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C39" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M39" s="2">
         <v>1803</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O39" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P39" s="2">
         <v>1</v>
       </c>
       <c r="Q39" s="2">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C40" s="2">
-        <v>106</v>
+        <v>153</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M40" s="2">
         <v>1803</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O40" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P40" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q40" s="2">
-        <v>53</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C41" s="2">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M41" s="2">
         <v>1803</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O41" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P41" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q41" s="2">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C42" s="2">
-        <v>259</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M42" s="2">
         <v>1803</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O42" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P42" s="2">
         <v>1</v>
       </c>
       <c r="Q42" s="2">
-        <v>259</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C43" s="2">
-        <v>463</v>
+        <v>259</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="2">
-        <v>567341</v>
+        <v>137</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M43" s="2">
         <v>1803</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O43" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P43" s="2">
         <v>1</v>
       </c>
       <c r="Q43" s="2">
-        <v>463</v>
+        <v>259</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C44" s="2">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="H44" s="2">
-        <v>3880800</v>
+        <v>567341</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M44" s="2">
         <v>1803</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O44" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P44" s="2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="2">
-        <v>396</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C45" s="2">
-        <v>1376</v>
+        <v>495</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H45" s="2">
-        <v>12934400</v>
+        <v>3880800</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M45" s="2">
         <v>1803</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O45" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P45" s="2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q45" s="2">
-        <v>1376</v>
+        <v>396</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C46" s="2">
-        <v>265</v>
+        <v>1376</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="H46" s="2">
-        <v>156768</v>
+        <v>12934400</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M46" s="2">
         <v>1803</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O46" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P46" s="2">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q46" s="2">
-        <v>22.0833333333333</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C47" s="2">
-        <v>80</v>
+        <v>265</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="H47" s="2">
+        <v>156768</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M47" s="2">
         <v>1803</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O47" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P47" s="2">
-        <v>1</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q47" s="2">
-        <v>80</v>
+        <v>22.0833333333333</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C48" s="2">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H48" s="2">
-        <v>31311</v>
+        <v>152</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M48" s="2">
         <v>1803</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O48" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P48" s="2">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q48" s="2">
-        <v>4.41666666666667</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C49" s="2">
-        <v>805</v>
+        <v>53</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="H49" s="2">
-        <v>756267</v>
+        <v>31311</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M49" s="2">
         <v>1803</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O49" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P49" s="2">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q49" s="2">
-        <v>134.166666666667</v>
+        <v>4.41666666666667</v>
       </c>
     </row>
     <row r="50" spans="1:17">
       <c r="A50" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C50" s="2">
-        <v>73</v>
+        <v>805</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H50" s="2">
-        <v>431680</v>
+        <v>756267</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M50" s="2">
         <v>1803</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O50" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P50" s="2">
-        <v>0.0833333333333333</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q50" s="2">
-        <v>6.08333333333333</v>
+        <v>134.166666666667</v>
       </c>
     </row>
     <row r="51" spans="1:17">
       <c r="A51" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C51" s="2">
-        <v>3084</v>
+        <v>73</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="H51" s="2">
+        <v>431680</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M51" s="2">
         <v>1803</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O51" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P51" s="2">
-        <v>0.229166666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q51" s="2">
-        <v>706.75</v>
+        <v>6.08333333333333</v>
       </c>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C52" s="2">
-        <v>975</v>
+        <v>3084</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M52" s="2">
         <v>1803</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O52" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P52" s="2">
-        <v>0.208333333333333</v>
+        <v>0.229166666666667</v>
       </c>
       <c r="Q52" s="2">
-        <v>203.125</v>
+        <v>706.75</v>
       </c>
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C53" s="2">
-        <v>440</v>
+        <v>975</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M53" s="2">
         <v>1803</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O53" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P53" s="2">
         <v>0.208333333333333</v>
       </c>
       <c r="Q53" s="2">
-        <v>91.6666666666667</v>
+        <v>203.125</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="A54" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C54" s="2">
-        <v>1254</v>
+        <v>440</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M54" s="2">
         <v>1803</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O54" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P54" s="2">
-        <v>0.0416666666666667</v>
+        <v>0.208333333333333</v>
       </c>
       <c r="Q54" s="2">
-        <v>52.25</v>
+        <v>91.6666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C55" s="2">
-        <v>2283</v>
+        <v>1254</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M55" s="2">
         <v>1803</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O55" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P55" s="2">
-        <v>0.416666666666667</v>
+        <v>0.0416666666666667</v>
       </c>
       <c r="Q55" s="2">
-        <v>951.25</v>
+        <v>52.25</v>
       </c>
     </row>
     <row r="56" spans="1:17">
       <c r="A56" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C56" s="2">
-        <v>137</v>
+        <v>2283</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M56" s="2">
         <v>1803</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O56" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P56" s="2">
-        <v>1</v>
+        <v>0.416666666666667</v>
       </c>
       <c r="Q56" s="2">
-        <v>137</v>
+        <v>951.25</v>
       </c>
     </row>
     <row r="57" spans="1:17">
       <c r="A57" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C57" s="2">
-        <v>437</v>
+        <v>137</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M57" s="2">
         <v>1803</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O57" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P57" s="2">
         <v>1</v>
       </c>
       <c r="Q57" s="2">
-        <v>437</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="A58" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C58" s="2">
-        <v>361</v>
+        <v>437</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H58" s="2">
-        <v>295996</v>
+      <c r="H58" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M58" s="2">
         <v>1803</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O58" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P58" s="2">
-        <v>0.0833333333333333</v>
+        <v>1</v>
       </c>
       <c r="Q58" s="2">
-        <v>30.0833333333333</v>
+        <v>437</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C59" s="2">
-        <v>1040</v>
+        <v>361</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
+      </c>
+      <c r="H59" s="2">
+        <v>295996</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M59" s="2">
         <v>1803</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O59" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P59" s="2">
-        <v>1</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q59" s="2">
-        <v>1040</v>
+        <v>30.0833333333333</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="A60" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C60" s="2">
-        <v>792.23</v>
+        <v>1040</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M60" s="2">
         <v>1803</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O60" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P60" s="2">
-        <v>0.059</v>
+        <v>1</v>
       </c>
       <c r="Q60" s="2">
-        <v>46.74157</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="A61" s="1">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2">
-        <v>106</v>
+        <v>792.23</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M61" s="2">
         <v>1803</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O61" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P61" s="2">
-        <v>0.333333333333333</v>
+        <v>0.059</v>
       </c>
       <c r="Q61" s="2">
-        <v>35.3333333333333</v>
+        <v>46.74157</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="A62" s="1">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M62" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O62" s="2">
         <v>77</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M62" s="2">
-        <v>1803</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O62" s="2">
-        <v>78</v>
-      </c>
       <c r="P62" s="2">
-        <v>1</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q62" s="2">
-        <v>86</v>
+        <v>35.3333333333333</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="A63" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C63" s="2">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M63" s="2">
         <v>1803</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O63" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P63" s="2">
         <v>1</v>
       </c>
       <c r="Q63" s="2">
-        <v>61</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="A64" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C64" s="2">
-        <v>3084</v>
+        <v>61</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M64" s="2">
         <v>1803</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O64" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P64" s="2">
-        <v>0.180555555555556</v>
+        <v>1</v>
       </c>
       <c r="Q64" s="2">
-        <v>556.833333333333</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C65" s="2">
-        <v>975</v>
+        <v>3084</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M65" s="2">
         <v>1803</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O65" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P65" s="2">
         <v>0.180555555555556</v>
       </c>
       <c r="Q65" s="2">
-        <v>176.041666666667</v>
+        <v>556.833333333333</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C66" s="2">
-        <v>440</v>
+        <v>975</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M66" s="2">
         <v>1803</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O66" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P66" s="2">
         <v>0.180555555555556</v>
       </c>
       <c r="Q66" s="2">
-        <v>79.4444444444444</v>
+        <v>176.041666666667</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1">
+        <v>82</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" s="2">
+        <v>440</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O67" s="2">
+        <v>82</v>
+      </c>
+      <c r="P67" s="2">
+        <v>0.180555555555556</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>79.4444444444444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1">
         <v>83</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="2">
+      <c r="B68" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="2">
         <v>91.89</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M67" s="2">
-        <v>1803</v>
-      </c>
-      <c r="N67" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O67" s="2">
+      <c r="D68" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M68" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N68" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O68" s="2">
         <v>83</v>
       </c>
-      <c r="P67" s="2">
+      <c r="P68" s="2">
         <v>0.5</v>
       </c>
-      <c r="Q67" s="2">
+      <c r="Q68" s="2">
         <v>45.945</v>
       </c>
     </row>
@@ -4840,345 +4902,749 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C2" s="2">
         <v>467.5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C2" s="2">
-        <v>774.2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="2">
+        <v>137</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O2" s="2">
+        <v>88</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>233.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>89</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="2">
+        <v>774.2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="2">
         <v>1931500</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="I3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O3" s="2">
+        <v>89</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>774.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
         <v>90</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="2">
         <v>302.6</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>91</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C4" s="2">
-        <v>345.2</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O4" s="2">
+        <v>90</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>302.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="2">
+        <v>345.2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O5" s="2">
+        <v>91</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>345.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
         <v>92</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="2">
-        <v>230.1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C6" s="2">
+        <v>230.1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O6" s="2">
+        <v>92</v>
+      </c>
+      <c r="P6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>230.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1">
+        <v>93</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="2">
         <v>260.2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
+      <c r="D7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O7" s="2">
+        <v>93</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>260.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1">
         <v>94</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="2">
         <v>39.4</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
+      <c r="D8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O8" s="2">
+        <v>94</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1">
         <v>95</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" s="2">
         <v>491</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
+      <c r="D9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" s="2">
+        <v>95</v>
+      </c>
+      <c r="P9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="1">
         <v>96</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B10" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="2">
         <v>357.6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>97</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="2">
-        <v>467.5</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>172</v>
+        <v>135</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O10" s="2">
+        <v>96</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>357.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C11" s="2">
-        <v>456</v>
+        <v>467.5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O11" s="2">
         <v>97</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="P11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>233.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
+        <v>100</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="2">
+        <v>456</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O12" s="2">
+        <v>100</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="1">
         <v>101</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="2">
+        <v>314.9</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O13" s="2">
+        <v>101</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>314.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1">
+        <v>102</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="2">
-        <v>314.9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="C14" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1803</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="O14" s="2">
         <v>102</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="P14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="2">
         <v>140.9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5187,6 +5653,1819 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3799</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>112</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3799</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>113</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1170</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>114</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5972</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>115</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3456</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>2884470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>129</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
+        <v>2884470</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>130</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>75589</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>131</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2">
+        <v>852982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>133</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
+        <v>134</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2">
+        <v>1256760</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>136</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="2">
+        <v>35712</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1053504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>137</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2">
+        <v>1955524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>138</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="2">
+        <v>87695</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2587002.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>139</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2">
+        <v>47772</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
+        <v>140</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2">
+        <v>1900000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
+        <v>141</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2">
+        <v>2404176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>142</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2">
+        <v>1072010</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>143</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>144</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2">
+        <v>2403193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>145</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2">
+        <v>52000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>146</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2">
+        <v>18925634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>147</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2">
+        <v>58585433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
+        <v>148</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2">
+        <v>55414777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
+        <v>149</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2">
+        <v>21903642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
+        <v>150</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="2">
+        <v>26565</v>
+      </c>
+      <c r="G22" s="2">
+        <v>783667.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
+        <v>151</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
+        <v>152</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>16125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
+        <v>153</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>1256760</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>154</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>35712</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>161</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="2">
+        <v>110398</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1103980</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>162</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30022</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G3" s="2">
+        <v>300220</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="2">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>163</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>164</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="2">
+        <v>102007</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1020070</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>166</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" s="2">
+        <v>70000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N6" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>167</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="2">
+        <v>119536</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1195360</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N7" s="2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>168</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" s="2">
+        <v>174641</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8" s="2">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>191</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>192</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>193</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>194</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>195</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>196</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>197</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>198</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>199</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>201</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>202</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>203</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>204</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>205</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>206</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>207</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>208</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>209</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>210</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>211</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>212</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>213</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>214</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>215</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>216</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>217</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>218</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>219</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>220</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>221</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>222</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>223</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>224</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>225</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>227</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>228</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>229</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1700000</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>239</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1700000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>240</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
+        <v>241</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2940000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
+        <v>242</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4483703</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
+        <v>243</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E6" s="2">
+        <v>399935</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -5196,1753 +7475,91 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C1" s="1">
-        <v>3799</v>
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>294</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1700000</v>
+        <v>297</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1170</v>
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>294</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>183</v>
+        <v>296</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>114</v>
+        <v>249</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5972</v>
+        <v>98</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>97</v>
+        <v>295</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>302</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>152</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>115</v>
+        <v>250</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3456</v>
+        <v>99</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>98</v>
+        <v>295</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1400000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2884470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>130</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
-        <v>75589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>131</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>132</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>852982</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>133</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <v>134</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
-        <v>1256760</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <v>136</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="2">
-        <v>35712</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1053504</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>137</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
-        <v>1955524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <v>138</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="2">
-        <v>87695</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2587002.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <v>139</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>47772</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <v>140</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
-        <v>1900000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <v>141</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
-        <v>2404176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <v>142</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
-        <v>1072010</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <v>143</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <v>144</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>2403193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1">
-        <v>145</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
-        <v>52000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>146</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
-        <v>18925634</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
-        <v>147</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
-        <v>58585433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>148</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
-        <v>55414777</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="1">
-        <v>149</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
-        <v>21903642</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
-        <v>150</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="2">
-        <v>26565</v>
-      </c>
-      <c r="G21" s="2">
-        <v>783667.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1">
-        <v>151</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1">
-        <v>152</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>16125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1">
-        <v>153</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
-        <v>1256760</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1">
-        <v>154</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
-        <v>35712</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>162</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D2" s="2">
-        <v>30022</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G2" s="2">
-        <v>300220</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N2" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>163</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G3" s="2">
-        <v>100000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N3" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>164</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" s="2">
-        <v>102007</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1020070</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N4" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>166</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G5" s="2">
-        <v>70000</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N5" s="2">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>167</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="2">
-        <v>119536</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1195360</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N6" s="2">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>168</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" s="2">
-        <v>174641</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1803</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="N7" s="2">
-        <v>168</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>192</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>193</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>194</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>195</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>196</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>197</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>198</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>199</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>201</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>202</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>203</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>204</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>205</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>206</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>207</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>208</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>209</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>210</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>211</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>212</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>213</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>214</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>215</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>216</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>217</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>218</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>219</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>220</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>221</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>222</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>223</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>224</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>225</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>227</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>228</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>229</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1700000</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>240</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>241</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2940000</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>242</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4483703</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>243</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" s="2">
-        <v>399935</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>249</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>250</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
+++ b/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1277" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="304">
   <si>
     <t>name</t>
   </si>
@@ -566,16 +566,19 @@
     <t>買賣.</t>
   </si>
   <si>
+    <t>capacity</t>
+  </si>
+  <si>
     <t>NISSAN</t>
   </si>
   <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>LEXUS</t>
+  </si>
+  <si>
     <t>101年08月07日</t>
-  </si>
-  <si>
-    <t>BMW</t>
-  </si>
-  <si>
-    <t>LEXUS</t>
   </si>
   <si>
     <t>95年01月01日</t>
@@ -5654,38 +5657,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C1" s="1">
-        <v>3799</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>182</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2">
         <v>3799</v>
@@ -5694,7 +5718,7 @@
         <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>137</v>
@@ -5702,8 +5726,29 @@
       <c r="G2" s="2">
         <v>1700000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N2" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>113</v>
       </c>
@@ -5717,7 +5762,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>152</v>
@@ -5725,8 +5770,29 @@
       <c r="G3" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N3" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>114</v>
       </c>
@@ -5740,7 +5806,7 @@
         <v>98</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>137</v>
@@ -5748,8 +5814,29 @@
       <c r="G4" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>115</v>
       </c>
@@ -5763,13 +5850,34 @@
         <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G5" s="2">
         <v>1400000</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="N5" s="2">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -5787,13 +5895,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>98</v>
@@ -5808,13 +5916,13 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>98</v>
@@ -5829,13 +5937,13 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>99</v>
@@ -5850,13 +5958,13 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>99</v>
@@ -5871,13 +5979,13 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>99</v>
@@ -5892,20 +6000,20 @@
         <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5913,13 +6021,13 @@
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>99</v>
@@ -5934,13 +6042,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>99</v>
@@ -5957,13 +6065,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>99</v>
@@ -5978,13 +6086,13 @@
         <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>99</v>
@@ -6001,16 +6109,16 @@
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -6022,16 +6130,16 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -6043,16 +6151,16 @@
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -6064,16 +6172,16 @@
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -6085,16 +6193,16 @@
         <v>143</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -6106,16 +6214,16 @@
         <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -6127,13 +6235,13 @@
         <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>99</v>
@@ -6148,13 +6256,13 @@
         <v>146</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>98</v>
@@ -6169,13 +6277,13 @@
         <v>147</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>98</v>
@@ -6190,13 +6298,13 @@
         <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>98</v>
@@ -6211,13 +6319,13 @@
         <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>98</v>
@@ -6232,13 +6340,13 @@
         <v>150</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>98</v>
@@ -6255,20 +6363,20 @@
         <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6276,13 +6384,13 @@
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>99</v>
@@ -6297,13 +6405,13 @@
         <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>99</v>
@@ -6318,13 +6426,13 @@
         <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>99</v>
@@ -6355,13 +6463,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -6393,7 +6501,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>98</v>
@@ -6405,13 +6513,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G2" s="2">
         <v>1103980</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>160</v>
@@ -6437,7 +6545,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>98</v>
@@ -6449,13 +6557,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G3" s="2">
         <v>300220</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>160</v>
@@ -6481,7 +6589,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>98</v>
@@ -6493,13 +6601,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G4" s="2">
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>160</v>
@@ -6525,7 +6633,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>98</v>
@@ -6537,13 +6645,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G5" s="2">
         <v>1020070</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>160</v>
@@ -6569,7 +6677,7 @@
         <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>98</v>
@@ -6581,13 +6689,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G6" s="2">
         <v>70000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>160</v>
@@ -6613,7 +6721,7 @@
         <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>98</v>
@@ -6625,13 +6733,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G7" s="2">
         <v>1195360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>160</v>
@@ -6657,7 +6765,7 @@
         <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>98</v>
@@ -6669,13 +6777,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>160</v>
@@ -6711,16 +6819,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6728,16 +6836,16 @@
         <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6745,16 +6853,16 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6762,16 +6870,16 @@
         <v>193</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6779,16 +6887,16 @@
         <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6796,16 +6904,16 @@
         <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6813,16 +6921,16 @@
         <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6830,16 +6938,16 @@
         <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6847,16 +6955,16 @@
         <v>198</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6864,16 +6972,16 @@
         <v>199</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6881,16 +6989,16 @@
         <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6898,16 +7006,16 @@
         <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6915,16 +7023,16 @@
         <v>203</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6932,16 +7040,16 @@
         <v>204</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6949,16 +7057,16 @@
         <v>205</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6966,16 +7074,16 @@
         <v>206</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6983,16 +7091,16 @@
         <v>207</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7000,16 +7108,16 @@
         <v>208</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7017,10 +7125,10 @@
         <v>209</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>98</v>
@@ -7032,10 +7140,10 @@
         <v>210</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>98</v>
@@ -7047,10 +7155,10 @@
         <v>211</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>98</v>
@@ -7062,10 +7170,10 @@
         <v>212</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>98</v>
@@ -7077,10 +7185,10 @@
         <v>213</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>98</v>
@@ -7092,10 +7200,10 @@
         <v>214</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>98</v>
@@ -7107,10 +7215,10 @@
         <v>215</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>98</v>
@@ -7122,10 +7230,10 @@
         <v>216</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>98</v>
@@ -7137,10 +7245,10 @@
         <v>217</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>98</v>
@@ -7152,10 +7260,10 @@
         <v>218</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>99</v>
@@ -7167,10 +7275,10 @@
         <v>219</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>99</v>
@@ -7182,10 +7290,10 @@
         <v>220</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>99</v>
@@ -7197,10 +7305,10 @@
         <v>221</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>99</v>
@@ -7212,13 +7320,13 @@
         <v>222</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -7227,13 +7335,13 @@
         <v>223</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -7242,13 +7350,13 @@
         <v>224</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -7257,13 +7365,13 @@
         <v>225</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -7272,10 +7380,10 @@
         <v>227</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>99</v>
@@ -7287,10 +7395,10 @@
         <v>228</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>99</v>
@@ -7302,10 +7410,10 @@
         <v>229</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>99</v>
@@ -7327,13 +7435,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E1" s="1">
         <v>1700000</v>
@@ -7342,7 +7450,7 @@
         <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7350,13 +7458,13 @@
         <v>239</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E2" s="2">
         <v>1700000</v>
@@ -7365,7 +7473,7 @@
         <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7373,22 +7481,22 @@
         <v>240</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7396,22 +7504,22 @@
         <v>241</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E4" s="2">
         <v>2940000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7419,22 +7527,22 @@
         <v>242</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E5" s="2">
         <v>4483703</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7442,22 +7550,22 @@
         <v>243</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E6" s="2">
         <v>399935</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -7478,19 +7586,19 @@
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7501,19 +7609,19 @@
         <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7524,19 +7632,19 @@
         <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7547,19 +7655,19 @@
         <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
+++ b/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="306">
   <si>
     <t>name</t>
   </si>
@@ -566,6 +566,9 @@
     <t>買賣.</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -591,6 +594,9 @@
   </si>
   <si>
     <t>買賣』</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>台中商業銀行i少鹿分行</t>
@@ -4987,7 +4993,7 @@
         <v>154</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>160</v>
@@ -5040,7 +5046,7 @@
         <v>1931500</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>160</v>
@@ -5093,7 +5099,7 @@
         <v>154</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>160</v>
@@ -5146,7 +5152,7 @@
         <v>154</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>160</v>
@@ -5199,7 +5205,7 @@
         <v>154</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>160</v>
@@ -5252,7 +5258,7 @@
         <v>154</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>160</v>
@@ -5305,7 +5311,7 @@
         <v>154</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>160</v>
@@ -5358,7 +5364,7 @@
         <v>154</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>160</v>
@@ -5411,7 +5417,7 @@
         <v>154</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>160</v>
@@ -5464,7 +5470,7 @@
         <v>154</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>160</v>
@@ -5517,7 +5523,7 @@
         <v>154</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>160</v>
@@ -5570,7 +5576,7 @@
         <v>154</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>160</v>
@@ -5623,7 +5629,7 @@
         <v>154</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>160</v>
@@ -5668,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5709,7 +5715,7 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2">
         <v>3799</v>
@@ -5718,7 +5724,7 @@
         <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>137</v>
@@ -5727,7 +5733,7 @@
         <v>1700000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>160</v>
@@ -5753,7 +5759,7 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2">
         <v>1170</v>
@@ -5762,7 +5768,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>152</v>
@@ -5771,7 +5777,7 @@
         <v>154</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>160</v>
@@ -5797,7 +5803,7 @@
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" s="2">
         <v>5972</v>
@@ -5806,7 +5812,7 @@
         <v>98</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>137</v>
@@ -5815,7 +5821,7 @@
         <v>154</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>160</v>
@@ -5841,7 +5847,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C5" s="2">
         <v>3456</v>
@@ -5850,16 +5856,16 @@
         <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G5" s="2">
         <v>1400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>160</v>
@@ -5895,13 +5901,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>98</v>
@@ -5916,13 +5922,13 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>98</v>
@@ -5937,13 +5943,13 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>99</v>
@@ -5958,13 +5964,13 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>99</v>
@@ -5979,13 +5985,13 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>99</v>
@@ -6000,20 +6006,20 @@
         <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -6021,13 +6027,13 @@
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>99</v>
@@ -6042,13 +6048,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>99</v>
@@ -6065,13 +6071,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>99</v>
@@ -6086,13 +6092,13 @@
         <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>99</v>
@@ -6109,16 +6115,16 @@
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -6130,16 +6136,16 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -6151,16 +6157,16 @@
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -6172,16 +6178,16 @@
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -6193,16 +6199,16 @@
         <v>143</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -6214,16 +6220,16 @@
         <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2">
@@ -6235,13 +6241,13 @@
         <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>99</v>
@@ -6256,13 +6262,13 @@
         <v>146</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>98</v>
@@ -6277,13 +6283,13 @@
         <v>147</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>98</v>
@@ -6298,13 +6304,13 @@
         <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>98</v>
@@ -6319,13 +6325,13 @@
         <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>98</v>
@@ -6340,13 +6346,13 @@
         <v>150</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>98</v>
@@ -6363,20 +6369,20 @@
         <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6384,13 +6390,13 @@
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>99</v>
@@ -6405,13 +6411,13 @@
         <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>99</v>
@@ -6426,13 +6432,13 @@
         <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>99</v>
@@ -6463,13 +6469,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -6501,7 +6507,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>98</v>
@@ -6513,13 +6519,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G2" s="2">
         <v>1103980</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>160</v>
@@ -6545,7 +6551,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>98</v>
@@ -6557,13 +6563,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G3" s="2">
         <v>300220</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>160</v>
@@ -6589,7 +6595,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>98</v>
@@ -6601,13 +6607,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G4" s="2">
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>160</v>
@@ -6633,7 +6639,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>98</v>
@@ -6645,13 +6651,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G5" s="2">
         <v>1020070</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>160</v>
@@ -6677,7 +6683,7 @@
         <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>98</v>
@@ -6689,13 +6695,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G6" s="2">
         <v>70000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>160</v>
@@ -6721,7 +6727,7 @@
         <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>98</v>
@@ -6733,13 +6739,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G7" s="2">
         <v>1195360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>160</v>
@@ -6765,7 +6771,7 @@
         <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>98</v>
@@ -6777,13 +6783,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>160</v>
@@ -6819,16 +6825,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6836,16 +6842,16 @@
         <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6853,16 +6859,16 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6870,16 +6876,16 @@
         <v>193</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6887,16 +6893,16 @@
         <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6904,16 +6910,16 @@
         <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6921,16 +6927,16 @@
         <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6938,16 +6944,16 @@
         <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6955,16 +6961,16 @@
         <v>198</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6972,16 +6978,16 @@
         <v>199</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6989,16 +6995,16 @@
         <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7006,16 +7012,16 @@
         <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7023,16 +7029,16 @@
         <v>203</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7040,16 +7046,16 @@
         <v>204</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7057,16 +7063,16 @@
         <v>205</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7074,16 +7080,16 @@
         <v>206</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7091,16 +7097,16 @@
         <v>207</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7108,16 +7114,16 @@
         <v>208</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7125,10 +7131,10 @@
         <v>209</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>98</v>
@@ -7140,10 +7146,10 @@
         <v>210</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>98</v>
@@ -7155,10 +7161,10 @@
         <v>211</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>98</v>
@@ -7170,10 +7176,10 @@
         <v>212</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>98</v>
@@ -7185,10 +7191,10 @@
         <v>213</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>98</v>
@@ -7200,10 +7206,10 @@
         <v>214</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>98</v>
@@ -7215,10 +7221,10 @@
         <v>215</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>98</v>
@@ -7230,10 +7236,10 @@
         <v>216</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>98</v>
@@ -7245,10 +7251,10 @@
         <v>217</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>98</v>
@@ -7260,10 +7266,10 @@
         <v>218</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>99</v>
@@ -7275,10 +7281,10 @@
         <v>219</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>99</v>
@@ -7290,10 +7296,10 @@
         <v>220</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>99</v>
@@ -7305,10 +7311,10 @@
         <v>221</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>99</v>
@@ -7320,13 +7326,13 @@
         <v>222</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -7335,13 +7341,13 @@
         <v>223</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -7350,13 +7356,13 @@
         <v>224</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -7365,13 +7371,13 @@
         <v>225</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -7380,10 +7386,10 @@
         <v>227</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>99</v>
@@ -7395,10 +7401,10 @@
         <v>228</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>99</v>
@@ -7410,10 +7416,10 @@
         <v>229</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>99</v>
@@ -7435,13 +7441,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E1" s="1">
         <v>1700000</v>
@@ -7450,7 +7456,7 @@
         <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7458,13 +7464,13 @@
         <v>239</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E2" s="2">
         <v>1700000</v>
@@ -7473,7 +7479,7 @@
         <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7481,22 +7487,22 @@
         <v>240</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7504,22 +7510,22 @@
         <v>241</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E4" s="2">
         <v>2940000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7527,22 +7533,22 @@
         <v>242</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E5" s="2">
         <v>4483703</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7550,22 +7556,22 @@
         <v>243</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2">
         <v>399935</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7586,19 +7592,19 @@
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7609,19 +7615,19 @@
         <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7632,19 +7638,19 @@
         <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7655,19 +7661,19 @@
         <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
+++ b/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="307">
   <si>
     <t>name</t>
   </si>
@@ -599,54 +599,63 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>台中商業銀行i少鹿分行</t>
   </si>
   <si>
+    <t>臺灣土地銀行沙鹿分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行沙鹿分行</t>
+  </si>
+  <si>
+    <t>臺灣土地銀行丨少鹿分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行文心分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行公益分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣）銀行文心分行</t>
+  </si>
+  <si>
+    <t>國泰世華商業銀行沙鹿分行</t>
+  </si>
+  <si>
+    <t>兆豐國際商業銀行沙鹿分行</t>
+  </si>
+  <si>
+    <t>花旗（台灣)商業銀行文心分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>外幣存款</t>
+  </si>
+  <si>
+    <t>外匯存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣土地銀行沙鹿分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行沙鹿分行</t>
-  </si>
-  <si>
-    <t>臺灣土地銀行丨少鹿分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行文心分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行公益分行</t>
-  </si>
-  <si>
-    <t>花旗（台灣）銀行文心分行</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行沙鹿分行</t>
-  </si>
-  <si>
-    <t>兆豐國際商業銀行沙鹿分行</t>
-  </si>
-  <si>
-    <t>花旗（台灣)商業銀行文心分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>外幣存款</t>
-  </si>
-  <si>
-    <t>外匯存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
@@ -659,19 +668,13 @@
     <t>顏〇朋</t>
   </si>
   <si>
-    <t>.16125</t>
-  </si>
-  <si>
-    <t>58606080</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>新光合成纖維股份有限公司</t>
@@ -5893,13 +5896,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>192</v>
       </c>
@@ -5910,542 +5913,1056 @@
         <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2884470</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>2884470</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M2" s="2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+      <c r="F3" s="2">
         <v>75589</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M3" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>2000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M4" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>852982</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M5" s="2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>16125</v>
+      </c>
       <c r="G6" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M6" s="2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>1256760</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M7" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F8" s="2">
-        <v>35712</v>
-      </c>
-      <c r="G8" s="2">
         <v>1053504</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M8" s="2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>1955524</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M9" s="2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
       <c r="F10" s="2">
-        <v>87695</v>
-      </c>
-      <c r="G10" s="2">
         <v>2587002.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M10" s="2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+        <v>212</v>
+      </c>
+      <c r="F11" s="2">
         <v>47772</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M11" s="2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+        <v>212</v>
+      </c>
+      <c r="F12" s="2">
         <v>1900000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+        <v>212</v>
+      </c>
+      <c r="F13" s="2">
         <v>2404176</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="2">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+        <v>213</v>
+      </c>
+      <c r="F14" s="2">
         <v>1072010</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M14" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>143</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+        <v>214</v>
+      </c>
+      <c r="F15" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M15" s="2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2">
+        <v>214</v>
+      </c>
+      <c r="F16" s="2">
         <v>2403193</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="G16" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2">
+      <c r="F17" s="2">
         <v>52000000</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M17" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>146</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2">
+      <c r="F18" s="2">
         <v>18925634</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M18" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>147</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="2">
         <v>58585433</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="G19" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M19" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="F20" s="2">
         <v>55414777</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="G20" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M20" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2">
+      <c r="F21" s="2">
         <v>21903642</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="G21" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M21" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>150</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F22" s="2">
-        <v>26565</v>
-      </c>
-      <c r="G22" s="2">
         <v>783667.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="G22" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2">
+        <v>58606080</v>
+      </c>
       <c r="G23" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>215</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M23" s="2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2">
+      <c r="F24" s="2">
         <v>16125</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="G24" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M24" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2">
+      <c r="F25" s="2">
         <v>1256760</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="G25" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M25" s="2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
         <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2">
+      <c r="F26" s="2">
         <v>35712</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1803</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M26" s="2">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -6469,13 +6986,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -6507,7 +7024,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>98</v>
@@ -6519,13 +7036,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G2" s="2">
         <v>1103980</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>160</v>
@@ -6551,7 +7068,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>98</v>
@@ -6563,13 +7080,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G3" s="2">
         <v>300220</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>160</v>
@@ -6595,7 +7112,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>98</v>
@@ -6607,13 +7124,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G4" s="2">
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>160</v>
@@ -6639,7 +7156,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>98</v>
@@ -6651,13 +7168,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G5" s="2">
         <v>1020070</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>160</v>
@@ -6683,7 +7200,7 @@
         <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>98</v>
@@ -6695,13 +7212,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G6" s="2">
         <v>70000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>160</v>
@@ -6727,7 +7244,7 @@
         <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>98</v>
@@ -6739,13 +7256,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G7" s="2">
         <v>1195360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>160</v>
@@ -6771,7 +7288,7 @@
         <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>98</v>
@@ -6783,13 +7300,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>160</v>
@@ -6825,16 +7342,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6842,16 +7359,16 @@
         <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6859,16 +7376,16 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6876,16 +7393,16 @@
         <v>193</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6893,16 +7410,16 @@
         <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6910,16 +7427,16 @@
         <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6927,16 +7444,16 @@
         <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6944,16 +7461,16 @@
         <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6961,16 +7478,16 @@
         <v>198</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6978,16 +7495,16 @@
         <v>199</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6995,16 +7512,16 @@
         <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7012,16 +7529,16 @@
         <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7029,16 +7546,16 @@
         <v>203</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7046,16 +7563,16 @@
         <v>204</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7063,16 +7580,16 @@
         <v>205</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7080,16 +7597,16 @@
         <v>206</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7097,16 +7614,16 @@
         <v>207</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7114,16 +7631,16 @@
         <v>208</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7131,10 +7648,10 @@
         <v>209</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>98</v>
@@ -7146,10 +7663,10 @@
         <v>210</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>98</v>
@@ -7161,10 +7678,10 @@
         <v>211</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>98</v>
@@ -7176,10 +7693,10 @@
         <v>212</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>98</v>
@@ -7191,10 +7708,10 @@
         <v>213</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>98</v>
@@ -7206,10 +7723,10 @@
         <v>214</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>98</v>
@@ -7221,10 +7738,10 @@
         <v>215</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>98</v>
@@ -7236,10 +7753,10 @@
         <v>216</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>98</v>
@@ -7251,10 +7768,10 @@
         <v>217</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>98</v>
@@ -7266,10 +7783,10 @@
         <v>218</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>99</v>
@@ -7281,10 +7798,10 @@
         <v>219</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>99</v>
@@ -7296,10 +7813,10 @@
         <v>220</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>99</v>
@@ -7311,10 +7828,10 @@
         <v>221</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>99</v>
@@ -7326,13 +7843,13 @@
         <v>222</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -7341,13 +7858,13 @@
         <v>223</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -7356,13 +7873,13 @@
         <v>224</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -7371,13 +7888,13 @@
         <v>225</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -7386,10 +7903,10 @@
         <v>227</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>99</v>
@@ -7401,10 +7918,10 @@
         <v>228</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>99</v>
@@ -7416,10 +7933,10 @@
         <v>229</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>99</v>
@@ -7441,13 +7958,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E1" s="1">
         <v>1700000</v>
@@ -7456,7 +7973,7 @@
         <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7464,13 +7981,13 @@
         <v>239</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E2" s="2">
         <v>1700000</v>
@@ -7479,7 +7996,7 @@
         <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7487,22 +8004,22 @@
         <v>240</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7510,22 +8027,22 @@
         <v>241</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E4" s="2">
         <v>2940000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -7533,22 +8050,22 @@
         <v>242</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E5" s="2">
         <v>4483703</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -7556,22 +8073,22 @@
         <v>243</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E6" s="2">
         <v>399935</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -7592,19 +8109,19 @@
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7615,19 +8132,19 @@
         <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7638,19 +8155,19 @@
         <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -7661,19 +8178,19 @@
         <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
+++ b/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="306">
   <si>
     <t>name</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>99年12月30日</t>
-  </si>
-  <si>
-    <t>96年10月26日■</t>
   </si>
   <si>
     <t>100年11月23曰</t>
@@ -1376,19 +1373,19 @@
         <v>100</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" s="2">
         <v>2601788</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>98</v>
@@ -1397,7 +1394,7 @@
         <v>1803</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O2" s="2">
         <v>15</v>
@@ -1429,19 +1426,19 @@
         <v>101</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>98</v>
@@ -1450,7 +1447,7 @@
         <v>1803</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O3" s="2">
         <v>16</v>
@@ -1482,19 +1479,19 @@
         <v>101</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>98</v>
@@ -1503,7 +1500,7 @@
         <v>1803</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O4" s="2">
         <v>17</v>
@@ -1535,19 +1532,19 @@
         <v>102</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>98</v>
@@ -1556,7 +1553,7 @@
         <v>1803</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O5" s="2">
         <v>18</v>
@@ -1588,19 +1585,19 @@
         <v>103</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>98</v>
@@ -1609,7 +1606,7 @@
         <v>1803</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O6" s="2">
         <v>19</v>
@@ -1641,19 +1638,19 @@
         <v>103</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>98</v>
@@ -1662,7 +1659,7 @@
         <v>1803</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O7" s="2">
         <v>20</v>
@@ -1694,19 +1691,19 @@
         <v>104</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>98</v>
@@ -1715,7 +1712,7 @@
         <v>1803</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O8" s="2">
         <v>21</v>
@@ -1747,19 +1744,19 @@
         <v>105</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>98</v>
@@ -1768,7 +1765,7 @@
         <v>1803</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O9" s="2">
         <v>22</v>
@@ -1800,19 +1797,19 @@
         <v>106</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H10" s="2">
         <v>16195100</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>98</v>
@@ -1821,7 +1818,7 @@
         <v>1803</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O10" s="2">
         <v>23</v>
@@ -1853,19 +1850,19 @@
         <v>101</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>98</v>
@@ -1874,7 +1871,7 @@
         <v>1803</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O11" s="2">
         <v>24</v>
@@ -1906,19 +1903,19 @@
         <v>101</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>98</v>
@@ -1927,7 +1924,7 @@
         <v>1803</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2">
         <v>25</v>
@@ -1959,19 +1956,19 @@
         <v>101</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>98</v>
@@ -1980,7 +1977,7 @@
         <v>1803</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2">
         <v>26</v>
@@ -2012,19 +2009,19 @@
         <v>101</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>98</v>
@@ -2033,7 +2030,7 @@
         <v>1803</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O14" s="2">
         <v>27</v>
@@ -2062,22 +2059,22 @@
         <v>98</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>98</v>
@@ -2086,7 +2083,7 @@
         <v>1803</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O15" s="2">
         <v>28</v>
@@ -2118,19 +2115,19 @@
         <v>101</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>98</v>
@@ -2139,7 +2136,7 @@
         <v>1803</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O16" s="2">
         <v>30</v>
@@ -2171,19 +2168,19 @@
         <v>101</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>98</v>
@@ -2192,7 +2189,7 @@
         <v>1803</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O17" s="2">
         <v>31</v>
@@ -2224,19 +2221,19 @@
         <v>101</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>98</v>
@@ -2245,7 +2242,7 @@
         <v>1803</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O18" s="2">
         <v>32</v>
@@ -2274,22 +2271,22 @@
         <v>98</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H19" s="2">
         <v>2140812</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>98</v>
@@ -2298,7 +2295,7 @@
         <v>1803</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O19" s="2">
         <v>33</v>
@@ -2327,22 +2324,22 @@
         <v>98</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>98</v>
@@ -2351,7 +2348,7 @@
         <v>1803</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O20" s="2">
         <v>34</v>
@@ -2380,22 +2377,22 @@
         <v>98</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>98</v>
@@ -2404,7 +2401,7 @@
         <v>1803</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O21" s="2">
         <v>35</v>
@@ -2433,22 +2430,22 @@
         <v>98</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H22" s="2">
         <v>995726</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>98</v>
@@ -2457,7 +2454,7 @@
         <v>1803</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O22" s="2">
         <v>36</v>
@@ -2486,22 +2483,22 @@
         <v>98</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="2">
         <v>113887</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>98</v>
@@ -2510,7 +2507,7 @@
         <v>1803</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O23" s="2">
         <v>37</v>
@@ -2539,22 +2536,22 @@
         <v>98</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>98</v>
@@ -2563,7 +2560,7 @@
         <v>1803</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O24" s="2">
         <v>38</v>
@@ -2592,22 +2589,22 @@
         <v>98</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>98</v>
@@ -2616,7 +2613,7 @@
         <v>1803</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O25" s="2">
         <v>39</v>
@@ -2645,22 +2642,22 @@
         <v>98</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H26" s="2">
         <v>3985200</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>98</v>
@@ -2669,7 +2666,7 @@
         <v>1803</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O26" s="2">
         <v>40</v>
@@ -2698,22 +2695,22 @@
         <v>98</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H27" s="2">
         <v>31561842</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>98</v>
@@ -2722,7 +2719,7 @@
         <v>1803</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O27" s="2">
         <v>41</v>
@@ -2751,22 +2748,22 @@
         <v>98</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>98</v>
@@ -2775,7 +2772,7 @@
         <v>1803</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O28" s="2">
         <v>42</v>
@@ -2804,22 +2801,22 @@
         <v>98</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>98</v>
@@ -2828,7 +2825,7 @@
         <v>1803</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O29" s="2">
         <v>43</v>
@@ -2857,22 +2854,22 @@
         <v>98</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H30" s="2">
         <v>2951820</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>98</v>
@@ -2881,7 +2878,7 @@
         <v>1803</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O30" s="2">
         <v>44</v>
@@ -2910,22 +2907,22 @@
         <v>98</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>98</v>
@@ -2934,7 +2931,7 @@
         <v>1803</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O31" s="2">
         <v>45</v>
@@ -2963,22 +2960,22 @@
         <v>98</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>98</v>
@@ -2987,7 +2984,7 @@
         <v>1803</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O32" s="2">
         <v>46</v>
@@ -3016,22 +3013,22 @@
         <v>98</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H33" s="2">
         <v>446226</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>98</v>
@@ -3040,7 +3037,7 @@
         <v>1803</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O33" s="2">
         <v>47</v>
@@ -3069,22 +3066,22 @@
         <v>98</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H34" s="2">
         <v>86394</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>98</v>
@@ -3093,7 +3090,7 @@
         <v>1803</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O34" s="2">
         <v>48</v>
@@ -3122,22 +3119,22 @@
         <v>98</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H35" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I35" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="J35" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>98</v>
@@ -3146,7 +3143,7 @@
         <v>1803</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O35" s="2">
         <v>49</v>
@@ -3175,22 +3172,22 @@
         <v>98</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H36" s="2">
         <v>66</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>98</v>
@@ -3199,7 +3196,7 @@
         <v>1803</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O36" s="2">
         <v>50</v>
@@ -3228,22 +3225,22 @@
         <v>98</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>98</v>
@@ -3252,7 +3249,7 @@
         <v>1803</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O37" s="2">
         <v>51</v>
@@ -3281,22 +3278,22 @@
         <v>98</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>98</v>
@@ -3305,7 +3302,7 @@
         <v>1803</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O38" s="2">
         <v>52</v>
@@ -3334,22 +3331,22 @@
         <v>98</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>98</v>
@@ -3358,7 +3355,7 @@
         <v>1803</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O39" s="2">
         <v>53</v>
@@ -3387,22 +3384,22 @@
         <v>98</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>98</v>
@@ -3411,7 +3408,7 @@
         <v>1803</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O40" s="2">
         <v>54</v>
@@ -3440,22 +3437,22 @@
         <v>98</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>98</v>
@@ -3464,7 +3461,7 @@
         <v>1803</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O41" s="2">
         <v>55</v>
@@ -3493,22 +3490,22 @@
         <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>98</v>
@@ -3517,7 +3514,7 @@
         <v>1803</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O42" s="2">
         <v>56</v>
@@ -3546,22 +3543,22 @@
         <v>98</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>98</v>
@@ -3570,7 +3567,7 @@
         <v>1803</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O43" s="2">
         <v>57</v>
@@ -3599,22 +3596,22 @@
         <v>98</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H44" s="2">
         <v>567341</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>98</v>
@@ -3623,7 +3620,7 @@
         <v>1803</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O44" s="2">
         <v>58</v>
@@ -3652,22 +3649,22 @@
         <v>98</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H45" s="2">
         <v>3880800</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>98</v>
@@ -3676,7 +3673,7 @@
         <v>1803</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O45" s="2">
         <v>59</v>
@@ -3705,22 +3702,22 @@
         <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H46" s="2">
         <v>12934400</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>98</v>
@@ -3729,7 +3726,7 @@
         <v>1803</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O46" s="2">
         <v>60</v>
@@ -3758,22 +3755,22 @@
         <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H47" s="2">
         <v>156768</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>98</v>
@@ -3782,7 +3779,7 @@
         <v>1803</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O47" s="2">
         <v>61</v>
@@ -3811,22 +3808,22 @@
         <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>98</v>
@@ -3835,7 +3832,7 @@
         <v>1803</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O48" s="2">
         <v>62</v>
@@ -3864,22 +3861,22 @@
         <v>98</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H49" s="2">
         <v>31311</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>98</v>
@@ -3888,7 +3885,7 @@
         <v>1803</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O49" s="2">
         <v>63</v>
@@ -3917,22 +3914,22 @@
         <v>98</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H50" s="2">
         <v>756267</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>98</v>
@@ -3941,7 +3938,7 @@
         <v>1803</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O50" s="2">
         <v>64</v>
@@ -3970,22 +3967,22 @@
         <v>98</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H51" s="2">
         <v>431680</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>98</v>
@@ -3994,7 +3991,7 @@
         <v>1803</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O51" s="2">
         <v>65</v>
@@ -4026,19 +4023,19 @@
         <v>103</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>98</v>
@@ -4047,7 +4044,7 @@
         <v>1803</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O52" s="2">
         <v>66</v>
@@ -4079,19 +4076,19 @@
         <v>103</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>98</v>
@@ -4100,7 +4097,7 @@
         <v>1803</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="2">
         <v>67</v>
@@ -4132,19 +4129,19 @@
         <v>104</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>98</v>
@@ -4153,7 +4150,7 @@
         <v>1803</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O54" s="2">
         <v>68</v>
@@ -4185,19 +4182,19 @@
         <v>101</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>98</v>
@@ -4206,7 +4203,7 @@
         <v>1803</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O55" s="2">
         <v>69</v>
@@ -4238,19 +4235,19 @@
         <v>101</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>98</v>
@@ -4259,7 +4256,7 @@
         <v>1803</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O56" s="2">
         <v>70</v>
@@ -4288,22 +4285,22 @@
         <v>98</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K57" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>98</v>
@@ -4312,7 +4309,7 @@
         <v>1803</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O57" s="2">
         <v>71</v>
@@ -4341,22 +4338,22 @@
         <v>98</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>98</v>
@@ -4365,7 +4362,7 @@
         <v>1803</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O58" s="2">
         <v>72</v>
@@ -4394,22 +4391,22 @@
         <v>98</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H59" s="2">
         <v>295996</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K59" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>98</v>
@@ -4418,7 +4415,7 @@
         <v>1803</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O59" s="2">
         <v>74</v>
@@ -4447,22 +4444,22 @@
         <v>98</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K60" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>98</v>
@@ -4471,7 +4468,7 @@
         <v>1803</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O60" s="2">
         <v>75</v>
@@ -4500,22 +4497,22 @@
         <v>99</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K61" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>98</v>
@@ -4524,7 +4521,7 @@
         <v>1803</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O61" s="2">
         <v>76</v>
@@ -4553,22 +4550,22 @@
         <v>99</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K62" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>98</v>
@@ -4577,7 +4574,7 @@
         <v>1803</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O62" s="2">
         <v>77</v>
@@ -4606,22 +4603,22 @@
         <v>99</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K63" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>98</v>
@@ -4630,7 +4627,7 @@
         <v>1803</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O63" s="2">
         <v>78</v>
@@ -4659,22 +4656,22 @@
         <v>99</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K64" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>98</v>
@@ -4683,7 +4680,7 @@
         <v>1803</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O64" s="2">
         <v>79</v>
@@ -4712,22 +4709,22 @@
         <v>99</v>
       </c>
       <c r="F65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="H65" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K65" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>98</v>
@@ -4736,7 +4733,7 @@
         <v>1803</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O65" s="2">
         <v>80</v>
@@ -4765,22 +4762,22 @@
         <v>99</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G66" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G66" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="H66" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K66" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>98</v>
@@ -4789,7 +4786,7 @@
         <v>1803</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O66" s="2">
         <v>81</v>
@@ -4818,22 +4815,22 @@
         <v>99</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="H67" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K67" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L67" s="2" t="s">
         <v>98</v>
@@ -4842,7 +4839,7 @@
         <v>1803</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O67" s="2">
         <v>82</v>
@@ -4871,22 +4868,22 @@
         <v>99</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K68" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>98</v>
@@ -4895,7 +4892,7 @@
         <v>1803</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O68" s="2">
         <v>83</v>
@@ -4975,7 +4972,7 @@
         <v>88</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2">
         <v>467.5</v>
@@ -4987,22 +4984,22 @@
         <v>98</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>98</v>
@@ -5011,7 +5008,7 @@
         <v>1803</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O2" s="2">
         <v>88</v>
@@ -5028,7 +5025,7 @@
         <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2">
         <v>774.2</v>
@@ -5040,22 +5037,22 @@
         <v>98</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" s="2">
         <v>1931500</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>98</v>
@@ -5064,7 +5061,7 @@
         <v>1803</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O3" s="2">
         <v>89</v>
@@ -5081,7 +5078,7 @@
         <v>90</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="2">
         <v>302.6</v>
@@ -5093,22 +5090,22 @@
         <v>98</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>98</v>
@@ -5117,7 +5114,7 @@
         <v>1803</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O4" s="2">
         <v>90</v>
@@ -5134,7 +5131,7 @@
         <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2">
         <v>345.2</v>
@@ -5146,22 +5143,22 @@
         <v>98</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>98</v>
@@ -5170,7 +5167,7 @@
         <v>1803</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O5" s="2">
         <v>91</v>
@@ -5187,7 +5184,7 @@
         <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C6" s="2">
         <v>230.1</v>
@@ -5199,22 +5196,22 @@
         <v>98</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>98</v>
@@ -5223,7 +5220,7 @@
         <v>1803</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O6" s="2">
         <v>92</v>
@@ -5240,7 +5237,7 @@
         <v>93</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2">
         <v>260.2</v>
@@ -5252,22 +5249,22 @@
         <v>98</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>98</v>
@@ -5276,7 +5273,7 @@
         <v>1803</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O7" s="2">
         <v>93</v>
@@ -5293,7 +5290,7 @@
         <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C8" s="2">
         <v>39.4</v>
@@ -5305,22 +5302,22 @@
         <v>98</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>98</v>
@@ -5329,7 +5326,7 @@
         <v>1803</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O8" s="2">
         <v>94</v>
@@ -5346,7 +5343,7 @@
         <v>95</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C9" s="2">
         <v>491</v>
@@ -5358,22 +5355,22 @@
         <v>98</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>98</v>
@@ -5382,7 +5379,7 @@
         <v>1803</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O9" s="2">
         <v>95</v>
@@ -5399,7 +5396,7 @@
         <v>96</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C10" s="2">
         <v>357.6</v>
@@ -5411,22 +5408,22 @@
         <v>99</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>98</v>
@@ -5435,7 +5432,7 @@
         <v>1803</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O10" s="2">
         <v>96</v>
@@ -5452,7 +5449,7 @@
         <v>97</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="2">
         <v>467.5</v>
@@ -5464,22 +5461,22 @@
         <v>99</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>98</v>
@@ -5488,7 +5485,7 @@
         <v>1803</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O11" s="2">
         <v>97</v>
@@ -5505,7 +5502,7 @@
         <v>100</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C12" s="2">
         <v>456</v>
@@ -5517,22 +5514,22 @@
         <v>98</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>98</v>
@@ -5541,7 +5538,7 @@
         <v>1803</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O12" s="2">
         <v>100</v>
@@ -5558,7 +5555,7 @@
         <v>101</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2">
         <v>314.9</v>
@@ -5570,22 +5567,22 @@
         <v>98</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>98</v>
@@ -5594,7 +5591,7 @@
         <v>1803</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2">
         <v>101</v>
@@ -5611,34 +5608,34 @@
         <v>102</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2">
         <v>140.9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="J14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>98</v>
@@ -5647,7 +5644,7 @@
         <v>1803</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O14" s="2">
         <v>102</v>
@@ -5677,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -5718,7 +5715,7 @@
         <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2">
         <v>3799</v>
@@ -5727,22 +5724,22 @@
         <v>98</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G2" s="2">
         <v>1700000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>98</v>
@@ -5751,7 +5748,7 @@
         <v>1803</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N2" s="2">
         <v>112</v>
@@ -5762,7 +5759,7 @@
         <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" s="2">
         <v>1170</v>
@@ -5771,22 +5768,22 @@
         <v>98</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>98</v>
@@ -5795,7 +5792,7 @@
         <v>1803</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N3" s="2">
         <v>113</v>
@@ -5806,7 +5803,7 @@
         <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2">
         <v>5972</v>
@@ -5815,22 +5812,22 @@
         <v>98</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>98</v>
@@ -5839,7 +5836,7 @@
         <v>1803</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N4" s="2">
         <v>114</v>
@@ -5850,7 +5847,7 @@
         <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2">
         <v>3456</v>
@@ -5859,22 +5856,22 @@
         <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="G5" s="2">
         <v>1400000</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>98</v>
@@ -5883,7 +5880,7 @@
         <v>1803</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N5" s="2">
         <v>115</v>
@@ -5904,13 +5901,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -5945,13 +5942,13 @@
         <v>129</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>98</v>
@@ -5960,13 +5957,13 @@
         <v>2884470</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>98</v>
@@ -5975,7 +5972,7 @@
         <v>1803</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M2" s="2">
         <v>129</v>
@@ -5986,13 +5983,13 @@
         <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>99</v>
@@ -6001,13 +5998,13 @@
         <v>75589</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>98</v>
@@ -6016,7 +6013,7 @@
         <v>1803</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M3" s="2">
         <v>130</v>
@@ -6027,13 +6024,13 @@
         <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>99</v>
@@ -6042,13 +6039,13 @@
         <v>2000000</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>98</v>
@@ -6057,7 +6054,7 @@
         <v>1803</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M4" s="2">
         <v>131</v>
@@ -6068,13 +6065,13 @@
         <v>132</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>99</v>
@@ -6083,13 +6080,13 @@
         <v>852982</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>98</v>
@@ -6098,7 +6095,7 @@
         <v>1803</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M5" s="2">
         <v>132</v>
@@ -6109,13 +6106,13 @@
         <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>99</v>
@@ -6124,13 +6121,13 @@
         <v>16125</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>98</v>
@@ -6139,7 +6136,7 @@
         <v>1803</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M6" s="2">
         <v>133</v>
@@ -6150,13 +6147,13 @@
         <v>134</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>99</v>
@@ -6165,13 +6162,13 @@
         <v>1256760</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>98</v>
@@ -6180,7 +6177,7 @@
         <v>1803</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M7" s="2">
         <v>134</v>
@@ -6191,13 +6188,13 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>99</v>
@@ -6206,13 +6203,13 @@
         <v>1053504</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>98</v>
@@ -6221,7 +6218,7 @@
         <v>1803</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M8" s="2">
         <v>136</v>
@@ -6232,13 +6229,13 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>99</v>
@@ -6247,13 +6244,13 @@
         <v>1955524</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>98</v>
@@ -6262,7 +6259,7 @@
         <v>1803</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M9" s="2">
         <v>137</v>
@@ -6273,13 +6270,13 @@
         <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>99</v>
@@ -6288,13 +6285,13 @@
         <v>2587002.5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>98</v>
@@ -6303,7 +6300,7 @@
         <v>1803</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M10" s="2">
         <v>138</v>
@@ -6314,28 +6311,28 @@
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F11" s="2">
         <v>47772</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>98</v>
@@ -6344,7 +6341,7 @@
         <v>1803</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M11" s="2">
         <v>139</v>
@@ -6355,28 +6352,28 @@
         <v>140</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F12" s="2">
         <v>1900000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>98</v>
@@ -6385,7 +6382,7 @@
         <v>1803</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M12" s="2">
         <v>140</v>
@@ -6396,28 +6393,28 @@
         <v>141</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F13" s="2">
         <v>2404176</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>98</v>
@@ -6426,7 +6423,7 @@
         <v>1803</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M13" s="2">
         <v>141</v>
@@ -6437,28 +6434,28 @@
         <v>142</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14" s="2">
         <v>1072010</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>98</v>
@@ -6467,7 +6464,7 @@
         <v>1803</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M14" s="2">
         <v>142</v>
@@ -6478,28 +6475,28 @@
         <v>143</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F15" s="2">
         <v>1000000</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>98</v>
@@ -6508,7 +6505,7 @@
         <v>1803</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M15" s="2">
         <v>143</v>
@@ -6519,28 +6516,28 @@
         <v>144</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F16" s="2">
         <v>2403193</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>98</v>
@@ -6549,7 +6546,7 @@
         <v>1803</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M16" s="2">
         <v>144</v>
@@ -6560,13 +6557,13 @@
         <v>145</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>99</v>
@@ -6575,13 +6572,13 @@
         <v>52000000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>98</v>
@@ -6590,7 +6587,7 @@
         <v>1803</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M17" s="2">
         <v>145</v>
@@ -6601,13 +6598,13 @@
         <v>146</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>98</v>
@@ -6616,13 +6613,13 @@
         <v>18925634</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>98</v>
@@ -6631,7 +6628,7 @@
         <v>1803</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M18" s="2">
         <v>146</v>
@@ -6642,13 +6639,13 @@
         <v>147</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>98</v>
@@ -6657,13 +6654,13 @@
         <v>58585433</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>98</v>
@@ -6672,7 +6669,7 @@
         <v>1803</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M19" s="2">
         <v>147</v>
@@ -6683,13 +6680,13 @@
         <v>148</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>98</v>
@@ -6698,13 +6695,13 @@
         <v>55414777</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>98</v>
@@ -6713,7 +6710,7 @@
         <v>1803</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M20" s="2">
         <v>148</v>
@@ -6724,13 +6721,13 @@
         <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>98</v>
@@ -6739,13 +6736,13 @@
         <v>21903642</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>98</v>
@@ -6754,7 +6751,7 @@
         <v>1803</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M21" s="2">
         <v>149</v>
@@ -6765,13 +6762,13 @@
         <v>150</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>98</v>
@@ -6780,13 +6777,13 @@
         <v>783667.5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>98</v>
@@ -6795,7 +6792,7 @@
         <v>1803</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M22" s="2">
         <v>150</v>
@@ -6806,13 +6803,13 @@
         <v>151</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>99</v>
@@ -6821,13 +6818,13 @@
         <v>58606080</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>98</v>
@@ -6836,7 +6833,7 @@
         <v>1803</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M23" s="2">
         <v>151</v>
@@ -6847,13 +6844,13 @@
         <v>152</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>99</v>
@@ -6862,13 +6859,13 @@
         <v>16125</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>98</v>
@@ -6877,7 +6874,7 @@
         <v>1803</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M24" s="2">
         <v>152</v>
@@ -6888,13 +6885,13 @@
         <v>153</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>99</v>
@@ -6903,13 +6900,13 @@
         <v>1256760</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>98</v>
@@ -6918,7 +6915,7 @@
         <v>1803</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M25" s="2">
         <v>153</v>
@@ -6929,13 +6926,13 @@
         <v>154</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>99</v>
@@ -6944,13 +6941,13 @@
         <v>35712</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>98</v>
@@ -6959,7 +6956,7 @@
         <v>1803</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M26" s="2">
         <v>154</v>
@@ -6986,13 +6983,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -7024,7 +7021,7 @@
         <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>98</v>
@@ -7036,19 +7033,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G2" s="2">
         <v>1103980</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>98</v>
@@ -7057,7 +7054,7 @@
         <v>1803</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N2" s="2">
         <v>161</v>
@@ -7068,7 +7065,7 @@
         <v>162</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>98</v>
@@ -7080,19 +7077,19 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G3" s="2">
         <v>300220</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>98</v>
@@ -7101,7 +7098,7 @@
         <v>1803</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N3" s="2">
         <v>162</v>
@@ -7112,7 +7109,7 @@
         <v>163</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>98</v>
@@ -7124,19 +7121,19 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G4" s="2">
         <v>100000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>98</v>
@@ -7145,7 +7142,7 @@
         <v>1803</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N4" s="2">
         <v>163</v>
@@ -7156,7 +7153,7 @@
         <v>164</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>98</v>
@@ -7168,19 +7165,19 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G5" s="2">
         <v>1020070</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>98</v>
@@ -7189,7 +7186,7 @@
         <v>1803</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N5" s="2">
         <v>164</v>
@@ -7200,7 +7197,7 @@
         <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>98</v>
@@ -7212,19 +7209,19 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G6" s="2">
         <v>70000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>98</v>
@@ -7233,7 +7230,7 @@
         <v>1803</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N6" s="2">
         <v>166</v>
@@ -7244,7 +7241,7 @@
         <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>98</v>
@@ -7256,19 +7253,19 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G7" s="2">
         <v>1195360</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>98</v>
@@ -7277,7 +7274,7 @@
         <v>1803</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N7" s="2">
         <v>167</v>
@@ -7288,7 +7285,7 @@
         <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>98</v>
@@ -7300,19 +7297,19 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="I8" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>98</v>
@@ -7321,7 +7318,7 @@
         <v>1803</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N8" s="2">
         <v>168</v>
@@ -7342,16 +7339,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -7359,16 +7356,16 @@
         <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -7376,16 +7373,16 @@
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -7393,16 +7390,16 @@
         <v>193</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7410,16 +7407,16 @@
         <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -7427,16 +7424,16 @@
         <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7444,16 +7441,16 @@
         <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -7461,16 +7458,16 @@
         <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -7478,16 +7475,16 @@
         <v>198</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7495,16 +7492,16 @@
         <v>199</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7512,16 +7509,16 @@
         <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -7529,16 +7526,16 @@
         <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -7546,16 +7543,16 @@
         <v>203</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7563,16 +7560,16 @@
         <v>204</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7580,16 +7577,16 @@
         <v>205</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -7597,16 +7594,16 @@
         <v>206</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -7614,16 +7611,16 @@
         <v>207</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -7631,16 +7628,16 @@
         <v>208</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7648,10 +7645,10 @@
         <v>209</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>98</v>
@@ -7663,10 +7660,10 @@
         <v>210</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>98</v>
@@ -7678,10 +7675,10 @@
         <v>211</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>98</v>
@@ -7693,10 +7690,10 @@
         <v>212</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>98</v>
@@ -7708,10 +7705,10 @@
         <v>213</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>98</v>
@@ -7723,10 +7720,10 @@
         <v>214</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>98</v>
@@ -7738,10 +7735,10 @@
         <v>215</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>98</v>
@@ -7753,10 +7750,10 @@
         <v>216</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>98</v>
@@ -7768,10 +7765,10 @@
         <v>217</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>98</v>
@@ -7783,10 +7780,10 @@
         <v>218</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>99</v>
@@ -7798,10 +7795,10 @@
         <v>219</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>99</v>
@@ -7813,10 +7810,10 @@
         <v>220</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>99</v>
@@ -7828,10 +7825,10 @@
         <v>221</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>99</v>
@@ -7843,13 +7840,13 @@
         <v>222</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E32" s="2"/>
     </row>
@@ -7858,13 +7855,13 @@
         <v>223</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E33" s="2"/>
     </row>
@@ -7873,13 +7870,13 @@
         <v>224</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E34" s="2"/>
     </row>
@@ -7888,13 +7885,13 @@
         <v>225</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E35" s="2"/>
     </row>
@@ -7903,10 +7900,10 @@
         <v>227</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>99</v>
@@ -7918,10 +7915,10 @@
         <v>228</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>99</v>
@@ -7933,10 +7930,10 @@
         <v>229</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>99</v>
@@ -7958,22 +7955,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="E1" s="1">
         <v>1700000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7981,22 +7978,22 @@
         <v>239</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="E2" s="2">
         <v>1700000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8004,22 +8001,22 @@
         <v>240</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8027,22 +8024,22 @@
         <v>241</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E4" s="2">
         <v>2940000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8050,22 +8047,22 @@
         <v>242</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E5" s="2">
         <v>4483703</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8073,22 +8070,22 @@
         <v>243</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E6" s="2">
         <v>399935</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -8109,19 +8106,19 @@
         <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -8132,19 +8129,19 @@
         <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8155,19 +8152,19 @@
         <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8178,19 +8175,19 @@
         <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>306</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
+++ b/legislator/property/output/normal/顏寬恒_2013-05-01_財產申報表_tmpbf3f1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="292">
   <si>
     <t>name</t>
   </si>
@@ -701,36 +701,36 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>台灣人壽</t>
   </si>
   <si>
+    <t>富邦人壽</t>
+  </si>
+  <si>
+    <t>中國人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>國泰人壽</t>
+  </si>
+  <si>
+    <t>全球人壽</t>
+  </si>
+  <si>
+    <t>蘇黎世國際人壽</t>
+  </si>
+  <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
     <t>台灣人壽新富貴年年變額年金保險</t>
   </si>
   <si>
-    <t>保單號碼：0100514993</t>
-  </si>
-  <si>
-    <t>富邦人壽</t>
-  </si>
-  <si>
-    <t>中國人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>國泰人壽</t>
-  </si>
-  <si>
-    <t>全球人壽</t>
-  </si>
-  <si>
-    <t>蘇黎世國際人壽</t>
-  </si>
-  <si>
-    <t>三商美邦人壽</t>
-  </si>
-  <si>
     <t>台灣人壽舞動人生變額萬能壽險</t>
   </si>
   <si>
@@ -824,121 +824,79 @@
     <t>凍麗凌</t>
   </si>
   <si>
-    <t>保單號碼：0100870◦58</t>
-  </si>
-  <si>
-    <t>保單號碼：0100881819</t>
-  </si>
-  <si>
-    <t>保單號碼：0100881828(乙型)</t>
-  </si>
-  <si>
-    <t>保單號碼：0100881846(乙型）</t>
-  </si>
-  <si>
-    <t>保單號碼：1005626531</t>
-  </si>
-  <si>
-    <t>保單號碼：1005626505</t>
-  </si>
-  <si>
-    <t>保單號碼：1005626488</t>
-  </si>
-  <si>
-    <t>保單號碼：1009606802</t>
-  </si>
-  <si>
-    <t>保單號碼：1009606795</t>
-  </si>
-  <si>
-    <t>保單號碼：1009606811</t>
-  </si>
-  <si>
-    <t>保單號碼：1003945837</t>
-  </si>
-  <si>
-    <t>保單號碼：1004559077</t>
-  </si>
-  <si>
-    <t>保單號碼：1007214388</t>
-  </si>
-  <si>
-    <t>保單號碼：1001166785</t>
-  </si>
-  <si>
-    <t>保單號碼：1002927488</t>
-  </si>
-  <si>
-    <t>保單號碼：1002927505</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>擔保貸款</t>
   </si>
   <si>
+    <t>房屋貸款</t>
+  </si>
+  <si>
     <t>顏寬®</t>
   </si>
   <si>
+    <t>顏寬恆</t>
+  </si>
+  <si>
     <t>大肚區農會臺中市大肚區大肚里沙田路2段683號</t>
   </si>
   <si>
+    <t>國泰世華商業銀行臺北市信義區松仁路7號1樓</t>
+  </si>
+  <si>
+    <t>台中商業銀行臺中市西區民權路87號1樓</t>
+  </si>
+  <si>
+    <t>100年02月25日</t>
+  </si>
+  <si>
+    <t>97年01月07日</t>
+  </si>
+  <si>
+    <t>95年12月01日</t>
+  </si>
+  <si>
     <t>貸款</t>
   </si>
   <si>
-    <t>房屋貸款</t>
-  </si>
-  <si>
-    <t>顏寬恆</t>
-  </si>
-  <si>
-    <t>國泰世華商業銀行臺北市信義區松仁路7號1樓</t>
-  </si>
-  <si>
-    <t>台中商業銀行臺中市西區民權路87號1樓</t>
-  </si>
-  <si>
-    <t>23700000</t>
-  </si>
-  <si>
-    <t>100年02月25日</t>
-  </si>
-  <si>
-    <t>97年01月07日</t>
-  </si>
-  <si>
-    <t>95年12月01日</t>
-  </si>
-  <si>
     <t>一般房貸一長擔</t>
   </si>
   <si>
     <t>一般房貸一長放</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>鹿澤國際開發（股）公司</t>
   </si>
   <si>
+    <t>僑鴻國際開發（股）公司</t>
+  </si>
+  <si>
     <t>臺中市鹿寮里成功東街93號</t>
   </si>
   <si>
-    <t>18000000</t>
-  </si>
-  <si>
     <t>96年10月11曰</t>
   </si>
   <si>
+    <t>94年10月17日</t>
+  </si>
+  <si>
     <t>公司設立</t>
   </si>
   <si>
-    <t>僑鴻國際開發（股）公司</t>
-  </si>
-  <si>
-    <t>25000000</t>
-  </si>
-  <si>
-    <t>5000000</t>
-  </si>
-  <si>
-    <t>94年10月17日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -7331,52 +7289,88 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>226</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>191</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>99</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K2" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>99</v>
@@ -7384,13 +7378,31 @@
       <c r="E3" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K3" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>193</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>236</v>
@@ -7399,15 +7411,33 @@
         <v>99</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>194</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>236</v>
@@ -7416,15 +7446,33 @@
         <v>99</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K5" s="2">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>195</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>236</v>
@@ -7433,15 +7481,33 @@
         <v>99</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>237</v>
@@ -7450,15 +7516,33 @@
         <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K7" s="2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>197</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>238</v>
@@ -7467,15 +7551,33 @@
         <v>99</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>198</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>238</v>
@@ -7484,15 +7586,33 @@
         <v>99</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>199</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>239</v>
@@ -7501,15 +7621,33 @@
         <v>99</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>201</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>240</v>
@@ -7518,15 +7656,33 @@
         <v>99</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" s="2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>202</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>241</v>
@@ -7535,15 +7691,33 @@
         <v>99</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K12" s="2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>203</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>242</v>
@@ -7552,15 +7726,33 @@
         <v>99</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K13" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>204</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>242</v>
@@ -7569,15 +7761,33 @@
         <v>99</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K14" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>205</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>243</v>
@@ -7586,15 +7796,33 @@
         <v>99</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>206</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>244</v>
@@ -7603,15 +7831,33 @@
         <v>98</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>207</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>245</v>
@@ -7620,15 +7866,33 @@
         <v>98</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K17" s="2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>208</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>242</v>
@@ -7637,15 +7901,33 @@
         <v>98</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>267</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" s="2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>209</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>246</v>
@@ -7653,14 +7935,34 @@
       <c r="D19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="E19" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" s="2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>210</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>247</v>
@@ -7668,14 +7970,34 @@
       <c r="D20" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="E20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>211</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>248</v>
@@ -7683,14 +8005,34 @@
       <c r="D21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="E21" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K21" s="2">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>212</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>249</v>
@@ -7698,14 +8040,34 @@
       <c r="D22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="E22" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>213</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>250</v>
@@ -7713,14 +8075,34 @@
       <c r="D23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="E23" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>214</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>251</v>
@@ -7728,14 +8110,34 @@
       <c r="D24" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="E24" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K24" s="2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>215</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>252</v>
@@ -7743,14 +8145,34 @@
       <c r="D25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="E25" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>216</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>253</v>
@@ -7758,14 +8180,34 @@
       <c r="D26" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="E26" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K26" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>217</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>254</v>
@@ -7773,14 +8215,34 @@
       <c r="D27" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="E27" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K27" s="2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>218</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>255</v>
@@ -7788,14 +8250,34 @@
       <c r="D28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="E28" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>219</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>256</v>
@@ -7803,14 +8285,34 @@
       <c r="D29" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="E29" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K29" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>220</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>257</v>
@@ -7818,14 +8320,34 @@
       <c r="D30" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="E30" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I30" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" s="2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>221</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>258</v>
@@ -7833,14 +8355,34 @@
       <c r="D31" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="E31" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I31" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K31" s="2">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>222</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>259</v>
@@ -7848,14 +8390,34 @@
       <c r="D32" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="E32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K32" s="2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>223</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>260</v>
@@ -7863,14 +8425,34 @@
       <c r="D33" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="E33" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K33" s="2">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>224</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>261</v>
@@ -7878,14 +8460,34 @@
       <c r="D34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="E34" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K34" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>225</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>262</v>
@@ -7893,14 +8495,34 @@
       <c r="D35" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="E35" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K35" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>227</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>263</v>
@@ -7908,14 +8530,34 @@
       <c r="D36" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="E36" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K36" s="2">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>228</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>264</v>
@@ -7923,14 +8565,34 @@
       <c r="D37" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="E37" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K37" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>229</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>265</v>
@@ -7938,7 +8600,27 @@
       <c r="D38" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="2">
+        <v>1803</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="K38" s="2">
+        <v>229</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7947,44 +8629,65 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1700000</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>126</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>239</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E2" s="2">
         <v>1700000</v>
@@ -7993,99 +8696,204 @@
         <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>280</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>240</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="2">
+        <v>23700000</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>241</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E4" s="2">
         <v>2940000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>281</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>242</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="E5" s="2">
         <v>4483703</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>280</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" s="2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>243</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E6" s="2">
         <v>399935</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>296</v>
+        <v>282</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N6" s="2">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -8095,33 +8903,54 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>299</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>248</v>
       </c>
@@ -8129,22 +8958,43 @@
         <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>299</v>
+        <v>287</v>
+      </c>
+      <c r="E2" s="2">
+        <v>18000000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>290</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N2" s="2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>249</v>
       </c>
@@ -8152,22 +9002,43 @@
         <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>303</v>
+        <v>287</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>290</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" s="2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>250</v>
       </c>
@@ -8175,19 +9046,40 @@
         <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>304</v>
+        <v>287</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5000000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1803</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="N4" s="2">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
